--- a/WIP/Users/ChinhVC/Test documnent/Executing for tester/DDL_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Users/ChinhVC/Test documnent/Executing for tester/DDL_System Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="1271">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -4995,12 +4995,6 @@
 2. Click Back this project</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Project Detail Page is displayed
-2. Back Project Page is displayed
-- NOT any reward is selected at Back Project Page. And user can select a reward or edit it
-</t>
-  </si>
-  <si>
     <t>Test Back Project when user input NOT number in plegde and amount on a Reward</t>
   </si>
   <si>
@@ -6304,9 +6298,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test Message when user receive a message form to another </t>
-  </si>
-  <si>
-    <t>Message-10</t>
   </si>
   <si>
     <t>1. Message Page is displayed.
@@ -8188,6 +8179,114 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Evident\Statistics-2.png</t>
+  </si>
+  <si>
+    <t>Evident\Statistics-3.png</t>
+  </si>
+  <si>
+    <t>- Các trường trong bảng bị sai 
++ Table top 10 người ủng hộ
++ Table top 10 người gây quỹ</t>
+  </si>
+  <si>
+    <t>1. Go to dandelion.com
+3. Mouse over Top Fund
+4. Click on View more button
+5. Click "Top 10 project" button</t>
+  </si>
+  <si>
+    <t>2. Homepage is displayed 
+3. View more button is showed
+4. Statistic page is displayed
+5. Panel top 10 project minimzed</t>
+  </si>
+  <si>
+    <t>1. Go to dandelion.com
+3. Mouse over Top Fund
+4. Click on View more button
+5. Click "Top 10 creator" button</t>
+  </si>
+  <si>
+    <t>1. Go to dandelion.com
+3. Mouse over Top Fund
+4. Click on View more button
+5. Click "Top 10 backer" button</t>
+  </si>
+  <si>
+    <t>2. Homepage is displayed 
+3. View more button is showed
+4. Statistic page is displayed
+5. Panel top 10 backer minimzed</t>
+  </si>
+  <si>
+    <t>2. Homepage is displayed 
+3. View more button is showed
+4. Statistic page is displayed
+5. Panel top 10 creator minimzed</t>
+  </si>
+  <si>
+    <t>Test button panel tables "Top 10 project"</t>
+  </si>
+  <si>
+    <t>Test button panel tables "Top 10 creator"</t>
+  </si>
+  <si>
+    <t>Test button panel tables "Top 10 backer"</t>
+  </si>
+  <si>
+    <t>Test Back Project when user NOT logged in and click a reward at Campaign tab in Project Detail Page</t>
+  </si>
+  <si>
+    <t>1. Project Detail Page is displayed
+2. Login page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Project Detail Page
+2. Select Back this project button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Project Detail Page is displayed
+2. Back Project Page is displayed
+- The first reward is selected at Back Project Page. And user can re-select a reward or edit it
+</t>
+  </si>
+  <si>
+    <t>1. Go to Back Project Page
+2. Input:
++ Pledge: "100000"
++ Amount: "2"
+3. Click on Continue button
+4. Click back button on Browser</t>
+  </si>
+  <si>
+    <t>1. Back Project Page is displayed
+3. Payment Project is displayed
+4. Back project page is displayed</t>
+  </si>
+  <si>
+    <t>Muốn quay lại chọn lại thì nó lại sang trang project details, mong muốn sang trang back project</t>
+  </si>
+  <si>
+    <t>Test Back Project when user click back button of browsers</t>
+  </si>
+  <si>
+    <t>Dù nhập đúng hay sai button "Ủng hộ" không sáng và không thể ấn được</t>
+  </si>
+  <si>
+    <t>Gợi ý được nhưng đến lúc hiển thị thì lại ra id hay sao ý =&gt; mong muốn ra tên</t>
+  </si>
+  <si>
+    <t>Evident\Message-10.png</t>
+  </si>
+  <si>
+    <t>[Message-12]</t>
+  </si>
+  <si>
+    <t>Đánh fail cho view qua thôi, nếu làm dc thì tốt. Nên có message hay nhạc ting ting khi có message mới cho người nhận</t>
   </si>
 </sst>
 </file>
@@ -9483,7 +9582,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10213,6 +10312,18 @@
     <xf numFmtId="0" fontId="33" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11020,25 +11131,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -11297,7 +11408,7 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
@@ -11582,7 +11693,7 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
@@ -11867,7 +11978,7 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
@@ -12156,7 +12267,7 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
@@ -12452,7 +12563,7 @@
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
@@ -12733,7 +12844,7 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
@@ -13012,7 +13123,7 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
@@ -13569,22 +13680,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -15132,13 +15243,13 @@
         <v>[Project Detail-44]</v>
       </c>
       <c r="B54" s="99" t="s">
+        <v>720</v>
+      </c>
+      <c r="C54" s="182" t="s">
         <v>721</v>
       </c>
-      <c r="C54" s="182" t="s">
-        <v>722</v>
-      </c>
       <c r="D54" s="182" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E54" s="173"/>
       <c r="F54" s="112"/>
@@ -15589,10 +15700,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW29"/>
+  <dimension ref="A1:IW32"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O8"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="A12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15625,25 +15736,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -15902,26 +16013,26 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O2" s="237">
@@ -16178,7 +16289,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="261" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C3" s="261"/>
       <c r="D3" s="261"/>
@@ -16187,31 +16298,31 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"Open")</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="211">
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
-      <c r="K3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Accepted")</f>
+      <c r="L3" s="211">
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Ready for test")</f>
+      <c r="M3" s="211">
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Closed")</f>
-        <v>0</v>
-      </c>
       <c r="N3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O3" s="238">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="79"/>
       <c r="Q3" s="79" t="s">
@@ -16472,26 +16583,26 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O4" s="238">
@@ -16761,26 +16872,26 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O5" s="238">
@@ -17034,49 +17145,49 @@
     </row>
     <row r="6" spans="1:257" ht="15.75" thickBot="1">
       <c r="A6" s="87">
-        <f>COUNTIF(F12:G109,"Pass")</f>
-        <v>0</v>
+        <f>COUNTIF(F12:G112,"Pass")</f>
+        <v>36</v>
       </c>
       <c r="B6" s="88">
-        <f>COUNTIF(F12:G109,"Fail")</f>
-        <v>0</v>
+        <f>COUNTIF(F12:G112,"Fail")</f>
+        <v>2</v>
       </c>
       <c r="C6" s="88">
         <f>E6-D6-B6-A6</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D6" s="89">
-        <f>COUNTIF(F12:G109,"N/A")</f>
-        <v>0</v>
+        <f>COUNTIF(F12:G112,"N/A")</f>
+        <v>2</v>
       </c>
       <c r="E6" s="264">
-        <f>COUNTA(A12:A109)*2</f>
-        <v>34</v>
+        <f>COUNTA(A12:A112)*2</f>
+        <v>40</v>
       </c>
       <c r="F6" s="264"/>
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O6" s="238">
@@ -17338,26 +17449,26 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O7" s="238">
@@ -17617,11 +17728,11 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="236">
         <f t="shared" ref="K8:O8" si="1">SUM(K2:K7)</f>
@@ -17641,7 +17752,7 @@
       </c>
       <c r="O8" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="79"/>
       <c r="Q8" s="79"/>
@@ -18145,7 +18256,7 @@
       <c r="IV9" s="79"/>
       <c r="IW9" s="79"/>
     </row>
-    <row r="10" spans="1:257" ht="28.5" customHeight="1">
+    <row r="10" spans="1:257" ht="25.5">
       <c r="A10" s="49" t="s">
         <v>30</v>
       </c>
@@ -18174,22 +18285,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -18434,7 +18545,7 @@
       <c r="IV10" s="79"/>
       <c r="IW10" s="79"/>
     </row>
-    <row r="11" spans="1:257" ht="14.25" customHeight="1">
+    <row r="11" spans="1:257">
       <c r="A11" s="159"/>
       <c r="B11" s="159" t="s">
         <v>589</v>
@@ -18695,7 +18806,7 @@
       <c r="IV11" s="79"/>
       <c r="IW11" s="79"/>
     </row>
-    <row r="12" spans="1:257" ht="14.25" customHeight="1">
+    <row r="12" spans="1:257" ht="140.25">
       <c r="A12" s="98" t="str">
         <f>IF(OR(B12&lt;&gt;"",D12&lt;E11&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Back Project-2]</v>
@@ -18710,10 +18821,16 @@
         <v>704</v>
       </c>
       <c r="E12" s="105"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
+      <c r="F12" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I12" s="280"/>
       <c r="J12" s="220"/>
       <c r="K12" s="220"/>
       <c r="L12" s="220"/>
@@ -18721,9 +18838,9 @@
       <c r="N12" s="221"/>
       <c r="O12" s="221"/>
     </row>
-    <row r="13" spans="1:257" ht="14.25" customHeight="1">
+    <row r="13" spans="1:257" ht="140.25">
       <c r="A13" s="98" t="str">
-        <f t="shared" ref="A13:A16" si="2">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A13:A18" si="2">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Back Project-3]</v>
       </c>
       <c r="B13" s="99" t="s">
@@ -18736,10 +18853,16 @@
         <v>704</v>
       </c>
       <c r="E13" s="105"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
+      <c r="F13" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I13" s="280"/>
       <c r="J13" s="220"/>
       <c r="K13" s="220"/>
       <c r="L13" s="220"/>
@@ -18747,25 +18870,31 @@
       <c r="N13" s="221"/>
       <c r="O13" s="221"/>
     </row>
-    <row r="14" spans="1:257" ht="14.25" customHeight="1">
+    <row r="14" spans="1:257" ht="38.25">
       <c r="A14" s="98" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(B14&lt;&gt;"",D14&lt;E11&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Back Project-4]</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>707</v>
+        <v>1258</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>705</v>
+        <v>1260</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>706</v>
+        <v>1259</v>
       </c>
       <c r="E14" s="105"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
+      <c r="F14" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I14" s="280"/>
       <c r="J14" s="220"/>
       <c r="K14" s="220"/>
       <c r="L14" s="220"/>
@@ -18773,25 +18902,31 @@
       <c r="N14" s="221"/>
       <c r="O14" s="221"/>
     </row>
-    <row r="15" spans="1:257" ht="14.25" customHeight="1">
+    <row r="15" spans="1:257" ht="51">
       <c r="A15" s="98" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(B15&lt;&gt;"",D15&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Back Project-5]</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>708</v>
+        <v>1258</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D15" s="99" t="s">
-        <v>710</v>
+        <v>1259</v>
       </c>
       <c r="E15" s="105"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
+      <c r="F15" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I15" s="280"/>
       <c r="J15" s="220"/>
       <c r="K15" s="220"/>
       <c r="L15" s="220"/>
@@ -18799,25 +18934,31 @@
       <c r="N15" s="221"/>
       <c r="O15" s="221"/>
     </row>
-    <row r="16" spans="1:257" ht="14.25" customHeight="1">
+    <row r="16" spans="1:257" ht="76.5">
       <c r="A16" s="98" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(B16&lt;&gt;"",D16&lt;E13&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Back Project-6]</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>712</v>
-      </c>
-      <c r="E16" s="110"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+        <v>706</v>
+      </c>
+      <c r="E16" s="105"/>
+      <c r="F16" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I16" s="280"/>
       <c r="J16" s="220"/>
       <c r="K16" s="220"/>
       <c r="L16" s="220"/>
@@ -18825,25 +18966,31 @@
       <c r="N16" s="221"/>
       <c r="O16" s="221"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1">
+    <row r="17" spans="1:15" ht="76.5">
       <c r="A17" s="98" t="str">
-        <f t="shared" ref="A17" si="3">IF(OR(B17&lt;&gt;"",D17&lt;E16&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="2"/>
         <v>[Back Project-7]</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D17" s="99" t="s">
-        <v>716</v>
-      </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
+        <v>1261</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I17" s="280"/>
       <c r="J17" s="220"/>
       <c r="K17" s="220"/>
       <c r="L17" s="220"/>
@@ -18851,44 +18998,63 @@
       <c r="N17" s="221"/>
       <c r="O17" s="221"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172" t="s">
-        <v>701</v>
-      </c>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
+    <row r="18" spans="1:15" ht="63.75">
+      <c r="A18" s="98" t="str">
+        <f t="shared" si="2"/>
+        <v>[Back Project-8]</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>710</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>712</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>711</v>
+      </c>
+      <c r="E18" s="110"/>
+      <c r="F18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I18" s="108"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="221"/>
+      <c r="O18" s="221"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1">
+    <row r="19" spans="1:15" ht="63.75">
       <c r="A19" s="98" t="str">
-        <f t="shared" ref="A19:A29" si="4">IF(OR(B19&lt;&gt;"",D19&lt;E18&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A19:A20" si="3">IF(OR(B19&lt;&gt;"",D19&lt;E18&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Back Project-9]</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>719</v>
-      </c>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="173"/>
+        <v>715</v>
+      </c>
+      <c r="E19" s="110"/>
+      <c r="F19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I19" s="108"/>
       <c r="J19" s="220"/>
       <c r="K19" s="220"/>
       <c r="L19" s="220"/>
@@ -18896,25 +19062,33 @@
       <c r="N19" s="221"/>
       <c r="O19" s="221"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1">
+    <row r="20" spans="1:15" ht="76.5">
       <c r="A20" s="98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>[Back Project-10]</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>738</v>
+        <v>1265</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>718</v>
+        <v>1262</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>723</v>
-      </c>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="173"/>
+        <v>1263</v>
+      </c>
+      <c r="E20" s="110"/>
+      <c r="F20" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I20" s="108" t="s">
+        <v>1264</v>
+      </c>
       <c r="J20" s="220"/>
       <c r="K20" s="220"/>
       <c r="L20" s="220"/>
@@ -18922,51 +19096,50 @@
       <c r="N20" s="221"/>
       <c r="O20" s="221"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A21" s="98" t="str">
-        <f t="shared" si="4"/>
-        <v>[Back Project-11]</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>744</v>
-      </c>
-      <c r="C21" s="112" t="s">
-        <v>731</v>
-      </c>
-      <c r="D21" s="112" t="s">
-        <v>725</v>
-      </c>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="221"/>
-      <c r="O21" s="221"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="172"/>
+      <c r="B21" s="172" t="s">
+        <v>701</v>
+      </c>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1">
+    <row r="22" spans="1:15" ht="127.5">
       <c r="A22" s="98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A22:A32" si="4">IF(OR(B22&lt;&gt;"",D22&lt;E21&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Back Project-12]</v>
       </c>
-      <c r="B22" s="112" t="s">
-        <v>743</v>
-      </c>
-      <c r="C22" s="112" t="s">
-        <v>732</v>
-      </c>
-      <c r="D22" s="148" t="s">
-        <v>733</v>
+      <c r="B22" s="99" t="s">
+        <v>716</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>717</v>
+      </c>
+      <c r="D22" s="99" t="s">
+        <v>718</v>
       </c>
       <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="173"/>
+      <c r="F22" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I22" s="281"/>
       <c r="J22" s="220"/>
       <c r="K22" s="220"/>
       <c r="L22" s="220"/>
@@ -18974,25 +19147,31 @@
       <c r="N22" s="221"/>
       <c r="O22" s="221"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1">
+    <row r="23" spans="1:15" ht="127.5">
       <c r="A23" s="98" t="str">
         <f t="shared" si="4"/>
         <v>[Back Project-13]</v>
       </c>
-      <c r="B23" s="112" t="s">
-        <v>742</v>
-      </c>
-      <c r="C23" s="112" t="s">
-        <v>730</v>
-      </c>
-      <c r="D23" s="112" t="s">
-        <v>726</v>
+      <c r="B23" s="99" t="s">
+        <v>737</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>717</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>722</v>
       </c>
       <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="173"/>
+      <c r="F23" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I23" s="281"/>
       <c r="J23" s="220"/>
       <c r="K23" s="220"/>
       <c r="L23" s="220"/>
@@ -19000,25 +19179,31 @@
       <c r="N23" s="221"/>
       <c r="O23" s="221"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1">
+    <row r="24" spans="1:15" ht="25.5">
       <c r="A24" s="98" t="str">
         <f t="shared" si="4"/>
         <v>[Back Project-14]</v>
       </c>
       <c r="B24" s="112" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C24" s="112" t="s">
-        <v>729</v>
-      </c>
-      <c r="D24" s="170" t="s">
-        <v>726</v>
+        <v>730</v>
+      </c>
+      <c r="D24" s="112" t="s">
+        <v>724</v>
       </c>
       <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="173"/>
+      <c r="F24" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I24" s="281"/>
       <c r="J24" s="220"/>
       <c r="K24" s="220"/>
       <c r="L24" s="220"/>
@@ -19026,25 +19211,31 @@
       <c r="N24" s="221"/>
       <c r="O24" s="221"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1">
+    <row r="25" spans="1:15" ht="76.5">
       <c r="A25" s="98" t="str">
         <f t="shared" si="4"/>
         <v>[Back Project-15]</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C25" s="112" t="s">
-        <v>728</v>
-      </c>
-      <c r="D25" s="170" t="s">
-        <v>727</v>
+        <v>731</v>
+      </c>
+      <c r="D25" s="148" t="s">
+        <v>732</v>
       </c>
       <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="173"/>
+      <c r="F25" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I25" s="281"/>
       <c r="J25" s="220"/>
       <c r="K25" s="220"/>
       <c r="L25" s="220"/>
@@ -19052,25 +19243,31 @@
       <c r="N25" s="221"/>
       <c r="O25" s="221"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1">
+    <row r="26" spans="1:15" ht="51">
       <c r="A26" s="98" t="str">
-        <f>IF(OR(B26&lt;&gt;"",D26&lt;E25&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="4"/>
         <v>[Back Project-16]</v>
       </c>
       <c r="B26" s="112" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C26" s="112" t="s">
-        <v>734</v>
-      </c>
-      <c r="D26" s="183" t="s">
-        <v>735</v>
+        <v>729</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>725</v>
       </c>
       <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="173"/>
+      <c r="F26" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I26" s="281"/>
       <c r="J26" s="220"/>
       <c r="K26" s="220"/>
       <c r="L26" s="220"/>
@@ -19078,25 +19275,31 @@
       <c r="N26" s="221"/>
       <c r="O26" s="221"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A27" s="176" t="str">
+    <row r="27" spans="1:15" ht="89.25">
+      <c r="A27" s="98" t="str">
         <f t="shared" si="4"/>
         <v>[Back Project-17]</v>
       </c>
-      <c r="B27" s="99" t="s">
-        <v>746</v>
-      </c>
-      <c r="C27" s="182" t="s">
-        <v>747</v>
-      </c>
-      <c r="D27" s="184" t="s">
-        <v>748</v>
+      <c r="B27" s="112" t="s">
+        <v>740</v>
+      </c>
+      <c r="C27" s="112" t="s">
+        <v>728</v>
+      </c>
+      <c r="D27" s="170" t="s">
+        <v>725</v>
       </c>
       <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="173"/>
+      <c r="F27" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I27" s="281"/>
       <c r="J27" s="220"/>
       <c r="K27" s="220"/>
       <c r="L27" s="220"/>
@@ -19104,25 +19307,31 @@
       <c r="N27" s="221"/>
       <c r="O27" s="221"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A28" s="176" t="str">
+    <row r="28" spans="1:15" ht="51">
+      <c r="A28" s="98" t="str">
         <f t="shared" si="4"/>
         <v>[Back Project-18]</v>
       </c>
-      <c r="B28" s="97" t="s">
-        <v>745</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>736</v>
-      </c>
-      <c r="D28" s="169" t="s">
-        <v>737</v>
+      <c r="B28" s="112" t="s">
+        <v>739</v>
+      </c>
+      <c r="C28" s="112" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="170" t="s">
+        <v>726</v>
       </c>
       <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="173"/>
+      <c r="F28" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I28" s="281"/>
       <c r="J28" s="220"/>
       <c r="K28" s="220"/>
       <c r="L28" s="220"/>
@@ -19130,31 +19339,143 @@
       <c r="N28" s="221"/>
       <c r="O28" s="221"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1">
+    <row r="29" spans="1:15" ht="102">
       <c r="A29" s="98" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B29&lt;&gt;"",D29&lt;E28&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Back Project-19]</v>
       </c>
-      <c r="B29" s="99" t="s">
-        <v>749</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>750</v>
-      </c>
-      <c r="D29" s="180" t="s">
-        <v>751</v>
+      <c r="B29" s="112" t="s">
+        <v>738</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>733</v>
+      </c>
+      <c r="D29" s="183" t="s">
+        <v>734</v>
       </c>
       <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="173"/>
+      <c r="F29" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I29" s="281"/>
       <c r="J29" s="220"/>
       <c r="K29" s="220"/>
       <c r="L29" s="220"/>
       <c r="M29" s="221"/>
       <c r="N29" s="221"/>
       <c r="O29" s="221"/>
+    </row>
+    <row r="30" spans="1:15" ht="153">
+      <c r="A30" s="176" t="str">
+        <f t="shared" si="4"/>
+        <v>[Back Project-20]</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>745</v>
+      </c>
+      <c r="C30" s="182" t="s">
+        <v>746</v>
+      </c>
+      <c r="D30" s="184" t="s">
+        <v>747</v>
+      </c>
+      <c r="E30" s="173"/>
+      <c r="F30" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I30" s="281"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="221"/>
+      <c r="N30" s="221"/>
+      <c r="O30" s="221"/>
+    </row>
+    <row r="31" spans="1:15" ht="51">
+      <c r="A31" s="176" t="str">
+        <f t="shared" si="4"/>
+        <v>[Back Project-21]</v>
+      </c>
+      <c r="B31" s="97" t="s">
+        <v>744</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>735</v>
+      </c>
+      <c r="D31" s="169" t="s">
+        <v>736</v>
+      </c>
+      <c r="E31" s="173"/>
+      <c r="F31" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I31" s="281"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="221"/>
+      <c r="N31" s="221"/>
+      <c r="O31" s="221"/>
+    </row>
+    <row r="32" spans="1:15" ht="51">
+      <c r="A32" s="98" t="str">
+        <f t="shared" si="4"/>
+        <v>[Back Project-22]</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>748</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="D32" s="180" t="s">
+        <v>750</v>
+      </c>
+      <c r="E32" s="173"/>
+      <c r="F32" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I32" s="99" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J32" s="220" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K32" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L32" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M32" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N32" s="221"/>
+      <c r="O32" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -19165,7 +19486,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G17">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G20 F22:G32">
       <formula1>$Q$2:$Q$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -19177,42 +19498,24 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$A$15:$A$20</xm:f>
           </x14:formula1>
-          <xm:sqref>L12:L17</xm:sqref>
+          <xm:sqref>J12:J32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$A$11:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>L19:L29</xm:sqref>
+          <xm:sqref>K12:K32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$B$4:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K12:K17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K19:K29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J12:J17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J19:J29</xm:sqref>
+          <xm:sqref>L12:L32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19224,8 +19527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JB47"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39:P39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19256,25 +19559,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -19529,7 +19832,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="261" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C2" s="261"/>
       <c r="D2" s="261"/>
@@ -19538,7 +19841,7 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
@@ -19819,7 +20122,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="261" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C3" s="261"/>
       <c r="D3" s="261"/>
@@ -19828,7 +20131,7 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
@@ -20118,7 +20421,7 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
@@ -20412,7 +20715,7 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
@@ -20713,7 +21016,7 @@
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
@@ -20999,7 +21302,7 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
@@ -21283,7 +21586,7 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
@@ -21850,22 +22153,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -22118,7 +22421,7 @@
     <row r="11" spans="1:262" ht="14.25" customHeight="1">
       <c r="A11" s="159"/>
       <c r="B11" s="159" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C11" s="160"/>
       <c r="D11" s="160"/>
@@ -22140,13 +22443,13 @@
         <v>[Project management-2]</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C12" s="99" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E12" s="105"/>
       <c r="F12" s="99"/>
@@ -22166,13 +22469,13 @@
         <v>[Project management-3]</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D13" s="99" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E13" s="105"/>
       <c r="F13" s="99"/>
@@ -22192,13 +22495,13 @@
         <v>[Project management-4]</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E14" s="105"/>
       <c r="F14" s="99"/>
@@ -22218,13 +22521,13 @@
         <v>[Project management-5]</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C15" s="99" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D15" s="99" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E15" s="105"/>
       <c r="F15" s="99"/>
@@ -22244,13 +22547,13 @@
         <v>[Project management-6]</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E16" s="105"/>
       <c r="F16" s="99"/>
@@ -22270,13 +22573,13 @@
         <v>[Project management-7]</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D17" s="99" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E17" s="105"/>
       <c r="F17" s="99"/>
@@ -22296,13 +22599,13 @@
         <v>[Project management-8]</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D18" s="99" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E18" s="105"/>
       <c r="F18" s="99"/>
@@ -22322,13 +22625,13 @@
         <v>[Project management-9]</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E19" s="105"/>
       <c r="F19" s="99"/>
@@ -22348,13 +22651,13 @@
         <v>[Project management-10]</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="99"/>
@@ -22374,13 +22677,13 @@
         <v>[Project management-11]</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E21" s="105"/>
       <c r="F21" s="99"/>
@@ -22400,13 +22703,13 @@
         <v>[Project management-12]</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E22" s="105"/>
       <c r="F22" s="99"/>
@@ -22426,13 +22729,13 @@
         <v>[Project management-13]</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E23" s="105"/>
       <c r="F23" s="99"/>
@@ -22452,13 +22755,13 @@
         <v>[Project management-14]</v>
       </c>
       <c r="B24" s="99" t="s">
+        <v>773</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>831</v>
+      </c>
+      <c r="D24" s="99" t="s">
         <v>774</v>
-      </c>
-      <c r="C24" s="99" t="s">
-        <v>832</v>
-      </c>
-      <c r="D24" s="99" t="s">
-        <v>775</v>
       </c>
       <c r="E24" s="105"/>
       <c r="F24" s="99"/>
@@ -22478,13 +22781,13 @@
         <v>[Project management-15]</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D25" s="99" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E25" s="105"/>
       <c r="F25" s="99"/>
@@ -22504,13 +22807,13 @@
         <v>[Project management-16]</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C26" s="99" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D26" s="99" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E26" s="105"/>
       <c r="F26" s="99"/>
@@ -22530,13 +22833,13 @@
         <v>[Project management-17]</v>
       </c>
       <c r="B27" s="99" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C27" s="99" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D27" s="99" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E27" s="105"/>
       <c r="F27" s="99"/>
@@ -22556,13 +22859,13 @@
         <v>[Project management-18]</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C28" s="99" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D28" s="99" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E28" s="105"/>
       <c r="F28" s="99"/>
@@ -22582,13 +22885,13 @@
         <v>[Project management-19]</v>
       </c>
       <c r="B29" s="99" t="s">
+        <v>804</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>836</v>
+      </c>
+      <c r="D29" s="99" t="s">
         <v>805</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>837</v>
-      </c>
-      <c r="D29" s="99" t="s">
-        <v>806</v>
       </c>
       <c r="E29" s="105"/>
       <c r="F29" s="99"/>
@@ -22605,7 +22908,7 @@
     <row r="30" spans="1:262" ht="14.25" customHeight="1">
       <c r="A30" s="172"/>
       <c r="B30" s="172" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C30" s="160"/>
       <c r="D30" s="160"/>
@@ -22627,13 +22930,13 @@
         <v>[Project management-21]</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D31" s="99" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E31" s="173"/>
       <c r="F31" s="99"/>
@@ -22900,13 +23203,13 @@
         <v>[Project management-22]</v>
       </c>
       <c r="B32" s="99" t="s">
+        <v>780</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>837</v>
+      </c>
+      <c r="D32" s="99" t="s">
         <v>781</v>
-      </c>
-      <c r="C32" s="99" t="s">
-        <v>838</v>
-      </c>
-      <c r="D32" s="99" t="s">
-        <v>782</v>
       </c>
       <c r="E32" s="173"/>
       <c r="F32" s="99"/>
@@ -23173,13 +23476,13 @@
         <v>[Project management-23]</v>
       </c>
       <c r="B33" s="99" t="s">
+        <v>783</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>837</v>
+      </c>
+      <c r="D33" s="99" t="s">
         <v>784</v>
-      </c>
-      <c r="C33" s="99" t="s">
-        <v>838</v>
-      </c>
-      <c r="D33" s="99" t="s">
-        <v>785</v>
       </c>
       <c r="E33" s="173"/>
       <c r="F33" s="99"/>
@@ -23446,13 +23749,13 @@
         <v>[Project management-24]</v>
       </c>
       <c r="B34" s="99" t="s">
+        <v>785</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>838</v>
+      </c>
+      <c r="D34" s="99" t="s">
         <v>786</v>
-      </c>
-      <c r="C34" s="99" t="s">
-        <v>839</v>
-      </c>
-      <c r="D34" s="99" t="s">
-        <v>787</v>
       </c>
       <c r="E34" s="173"/>
       <c r="F34" s="99"/>
@@ -23719,13 +24022,13 @@
         <v>[Project management-25]</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C35" s="99" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D35" s="99" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E35" s="173"/>
       <c r="F35" s="99"/>
@@ -23992,13 +24295,13 @@
         <v>[Project management-26]</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="99"/>
@@ -24265,13 +24568,13 @@
         <v>[Project management-27]</v>
       </c>
       <c r="B37" s="99" t="s">
+        <v>794</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>841</v>
+      </c>
+      <c r="D37" s="99" t="s">
         <v>795</v>
-      </c>
-      <c r="C37" s="99" t="s">
-        <v>842</v>
-      </c>
-      <c r="D37" s="99" t="s">
-        <v>796</v>
       </c>
       <c r="E37" s="173"/>
       <c r="F37" s="99"/>
@@ -24538,13 +24841,13 @@
         <v>[Project management-28]</v>
       </c>
       <c r="B38" s="99" t="s">
+        <v>791</v>
+      </c>
+      <c r="C38" s="99" t="s">
         <v>792</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="D38" s="99" t="s">
         <v>793</v>
-      </c>
-      <c r="D38" s="99" t="s">
-        <v>794</v>
       </c>
       <c r="E38" s="173"/>
       <c r="F38" s="99"/>
@@ -24808,7 +25111,7 @@
     <row r="39" spans="1:262" ht="14.25" customHeight="1">
       <c r="A39" s="172"/>
       <c r="B39" s="172" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C39" s="172"/>
       <c r="D39" s="172"/>
@@ -24831,13 +25134,13 @@
         <v>[Project management-30]</v>
       </c>
       <c r="B40" s="99" t="s">
+        <v>806</v>
+      </c>
+      <c r="C40" s="99" t="s">
+        <v>842</v>
+      </c>
+      <c r="D40" s="99" t="s">
         <v>807</v>
-      </c>
-      <c r="C40" s="99" t="s">
-        <v>843</v>
-      </c>
-      <c r="D40" s="99" t="s">
-        <v>808</v>
       </c>
       <c r="E40" s="173"/>
       <c r="F40" s="99"/>
@@ -24857,13 +25160,13 @@
         <v>[Project management-31]</v>
       </c>
       <c r="B41" s="99" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C41" s="99" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D41" s="99" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E41" s="173"/>
       <c r="F41" s="99"/>
@@ -24883,13 +25186,13 @@
         <v>[Project management-32]</v>
       </c>
       <c r="B42" s="99" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C42" s="99" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E42" s="173"/>
       <c r="F42" s="99"/>
@@ -24909,13 +25212,13 @@
         <v>[Project management-33]</v>
       </c>
       <c r="B43" s="99" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C43" s="99" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E43" s="173"/>
       <c r="F43" s="99"/>
@@ -24935,13 +25238,13 @@
         <v>[Project management-34]</v>
       </c>
       <c r="B44" s="99" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C44" s="99" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D44" s="99" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E44" s="173"/>
       <c r="F44" s="99"/>
@@ -24961,13 +25264,13 @@
         <v>[Project management-35]</v>
       </c>
       <c r="B45" s="99" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C45" s="99" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D45" s="99" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E45" s="173"/>
       <c r="F45" s="99"/>
@@ -24987,13 +25290,13 @@
         <v>[Project management-36]</v>
       </c>
       <c r="B46" s="99" t="s">
+        <v>817</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>846</v>
+      </c>
+      <c r="D46" s="99" t="s">
         <v>818</v>
-      </c>
-      <c r="C46" s="99" t="s">
-        <v>847</v>
-      </c>
-      <c r="D46" s="99" t="s">
-        <v>819</v>
       </c>
       <c r="E46" s="173"/>
       <c r="F46" s="99"/>
@@ -25013,13 +25316,13 @@
         <v>[Project management-37]</v>
       </c>
       <c r="B47" s="99" t="s">
+        <v>819</v>
+      </c>
+      <c r="C47" s="99" t="s">
         <v>820</v>
       </c>
-      <c r="C47" s="99" t="s">
+      <c r="D47" s="99" t="s">
         <v>821</v>
-      </c>
-      <c r="D47" s="99" t="s">
-        <v>822</v>
       </c>
       <c r="E47" s="173"/>
       <c r="F47" s="99"/>
@@ -25119,8 +25422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW20"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O8"/>
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -25157,25 +25460,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -25425,7 +25728,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="261" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C2" s="261"/>
       <c r="D2" s="261"/>
@@ -25434,7 +25737,7 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
@@ -25710,7 +26013,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="261" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C3" s="261"/>
       <c r="D3" s="261"/>
@@ -25719,7 +26022,7 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
@@ -26004,7 +26307,7 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
@@ -26293,7 +26596,7 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
@@ -26567,7 +26870,7 @@
     <row r="6" spans="1:257" ht="15.75" thickBot="1">
       <c r="A6" s="87">
         <f>COUNTIF(F11:G84,"Pass")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B6" s="88">
         <f>COUNTIF(F11:G84,"Fail")</f>
@@ -26575,7 +26878,7 @@
       </c>
       <c r="C6" s="88">
         <f>E6-D6-B6-A6</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D6" s="89">
         <f>COUNTIF(F11:G84,"N/A")</f>
@@ -26589,7 +26892,7 @@
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
@@ -26870,7 +27173,7 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
@@ -27149,7 +27452,7 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
@@ -27677,7 +27980,7 @@
       <c r="IV9" s="79"/>
       <c r="IW9" s="79"/>
     </row>
-    <row r="10" spans="1:257" ht="29.25" customHeight="1">
+    <row r="10" spans="1:257" ht="25.5">
       <c r="A10" s="49" t="s">
         <v>30</v>
       </c>
@@ -27706,22 +28009,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -27966,10 +28269,10 @@
       <c r="IV10" s="79"/>
       <c r="IW10" s="79"/>
     </row>
-    <row r="11" spans="1:257" ht="14.25" customHeight="1">
+    <row r="11" spans="1:257">
       <c r="A11" s="159"/>
       <c r="B11" s="159" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C11" s="160"/>
       <c r="D11" s="160"/>
@@ -27985,24 +28288,30 @@
       <c r="N11" s="160"/>
       <c r="O11" s="193"/>
     </row>
-    <row r="12" spans="1:257" ht="14.25" customHeight="1">
+    <row r="12" spans="1:257" ht="140.25">
       <c r="A12" s="98" t="str">
         <f>IF(OR(B12&lt;&gt;"",D12&lt;E11&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Discover-2]</v>
       </c>
       <c r="B12" s="99" t="s">
+        <v>849</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>898</v>
+      </c>
+      <c r="D12" s="99" t="s">
         <v>850</v>
       </c>
-      <c r="C12" s="99" t="s">
-        <v>899</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>851</v>
-      </c>
       <c r="E12" s="105"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="106"/>
+      <c r="F12" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="106">
+        <v>42323</v>
+      </c>
       <c r="I12" s="107"/>
       <c r="J12" s="220"/>
       <c r="K12" s="220"/>
@@ -28011,24 +28320,30 @@
       <c r="N12" s="221"/>
       <c r="O12" s="221"/>
     </row>
-    <row r="13" spans="1:257" ht="14.25" customHeight="1">
+    <row r="13" spans="1:257" ht="140.25">
       <c r="A13" s="98" t="str">
         <f t="shared" ref="A13:A20" si="2">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Discover-3]</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D13" s="99" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E13" s="105"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="106"/>
+      <c r="F13" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="106">
+        <v>42323</v>
+      </c>
       <c r="I13" s="107"/>
       <c r="J13" s="220"/>
       <c r="K13" s="220"/>
@@ -28037,24 +28352,30 @@
       <c r="N13" s="221"/>
       <c r="O13" s="221"/>
     </row>
-    <row r="14" spans="1:257" ht="14.25" customHeight="1">
+    <row r="14" spans="1:257" ht="63.75">
       <c r="A14" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Discover-4]</v>
       </c>
       <c r="B14" s="99" t="s">
+        <v>852</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>899</v>
+      </c>
+      <c r="D14" s="99" t="s">
         <v>853</v>
       </c>
-      <c r="C14" s="99" t="s">
-        <v>900</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>854</v>
-      </c>
       <c r="E14" s="105"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="106"/>
+      <c r="F14" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="106">
+        <v>42323</v>
+      </c>
       <c r="I14" s="107"/>
       <c r="J14" s="220"/>
       <c r="K14" s="220"/>
@@ -28063,24 +28384,30 @@
       <c r="N14" s="221"/>
       <c r="O14" s="221"/>
     </row>
-    <row r="15" spans="1:257" ht="14.25" customHeight="1">
+    <row r="15" spans="1:257" ht="76.5">
       <c r="A15" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Discover-5]</v>
       </c>
       <c r="B15" s="99" t="s">
+        <v>854</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>900</v>
+      </c>
+      <c r="D15" s="99" t="s">
         <v>855</v>
       </c>
-      <c r="C15" s="99" t="s">
-        <v>901</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>856</v>
-      </c>
       <c r="E15" s="105"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="106"/>
+      <c r="F15" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="106">
+        <v>42323</v>
+      </c>
       <c r="I15" s="107"/>
       <c r="J15" s="220"/>
       <c r="K15" s="220"/>
@@ -28089,24 +28416,30 @@
       <c r="N15" s="221"/>
       <c r="O15" s="221"/>
     </row>
-    <row r="16" spans="1:257" ht="14.25" customHeight="1">
+    <row r="16" spans="1:257" ht="76.5">
       <c r="A16" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Discover-6]</v>
       </c>
       <c r="B16" s="99" t="s">
+        <v>860</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>901</v>
+      </c>
+      <c r="D16" s="99" t="s">
         <v>861</v>
       </c>
-      <c r="C16" s="99" t="s">
-        <v>902</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>862</v>
-      </c>
       <c r="E16" s="105"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="106"/>
+      <c r="F16" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="106">
+        <v>42323</v>
+      </c>
       <c r="I16" s="107"/>
       <c r="J16" s="220"/>
       <c r="K16" s="220"/>
@@ -28115,24 +28448,30 @@
       <c r="N16" s="221"/>
       <c r="O16" s="221"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1">
+    <row r="17" spans="1:15" ht="76.5">
       <c r="A17" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Discover-7]</v>
       </c>
       <c r="B17" s="99" t="s">
+        <v>857</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>902</v>
+      </c>
+      <c r="D17" s="99" t="s">
         <v>858</v>
       </c>
-      <c r="C17" s="99" t="s">
-        <v>903</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>859</v>
-      </c>
       <c r="E17" s="105"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="106"/>
+      <c r="F17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="106">
+        <v>42323</v>
+      </c>
       <c r="I17" s="107"/>
       <c r="J17" s="220"/>
       <c r="K17" s="220"/>
@@ -28141,24 +28480,30 @@
       <c r="N17" s="221"/>
       <c r="O17" s="221"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1">
+    <row r="18" spans="1:15" ht="76.5">
       <c r="A18" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Discover-8]</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D18" s="99" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E18" s="105"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="106"/>
+      <c r="F18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="106">
+        <v>42323</v>
+      </c>
       <c r="I18" s="107"/>
       <c r="J18" s="220"/>
       <c r="K18" s="220"/>
@@ -28167,24 +28512,30 @@
       <c r="N18" s="221"/>
       <c r="O18" s="221"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1">
+    <row r="19" spans="1:15" ht="63.75">
       <c r="A19" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Discover-9]</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="106"/>
+      <c r="F19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="106">
+        <v>42323</v>
+      </c>
       <c r="I19" s="107"/>
       <c r="J19" s="220"/>
       <c r="K19" s="220"/>
@@ -28193,24 +28544,30 @@
       <c r="N19" s="221"/>
       <c r="O19" s="221"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1">
+    <row r="20" spans="1:15" ht="114.75">
       <c r="A20" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Discover-10]</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="106"/>
+      <c r="F20" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="106">
+        <v>42323</v>
+      </c>
       <c r="I20" s="107"/>
       <c r="J20" s="220"/>
       <c r="K20" s="220"/>
@@ -28227,7 +28584,7 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G20">
       <formula1>$Q$2:$Q$6</formula1>
     </dataValidation>
@@ -28240,7 +28597,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[3]Calculate!#REF!</xm:f>
@@ -28267,10 +28624,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW20"/>
+  <dimension ref="A1:IW23"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O8"/>
+    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28303,25 +28660,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -28571,7 +28928,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="261" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C2" s="261"/>
       <c r="D2" s="261"/>
@@ -28580,26 +28937,26 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N2" s="211">
-        <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"ManhNL",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O2" s="237">
@@ -28856,7 +29213,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="261" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C3" s="261"/>
       <c r="D3" s="261"/>
@@ -28865,26 +29222,26 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N3" s="211">
-        <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"HuyNM",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O3" s="238">
@@ -29150,26 +29507,26 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N4" s="211">
-        <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"AnhDD",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O4" s="238">
@@ -29439,31 +29796,31 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"Open")</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="211">
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
-      <c r="K5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Accepted")</f>
+      <c r="L5" s="211">
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Ready for test")</f>
+      <c r="M5" s="211">
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
-      <c r="M5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Closed")</f>
-        <v>0</v>
-      </c>
       <c r="N5" s="211">
-        <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"TrungVN",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O5" s="238">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P5" s="79"/>
       <c r="Q5" s="79" t="s">
@@ -29712,49 +30069,49 @@
     </row>
     <row r="6" spans="1:257" ht="15.75" thickBot="1">
       <c r="A6" s="87">
-        <f>COUNTIF(F11:G84,"Pass")</f>
-        <v>0</v>
+        <f>COUNTIF(F11:G87,"Pass")</f>
+        <v>5</v>
       </c>
       <c r="B6" s="88">
-        <f>COUNTIF(F11:G84,"Fail")</f>
-        <v>0</v>
+        <f>COUNTIF(F11:G87,"Fail")</f>
+        <v>17</v>
       </c>
       <c r="C6" s="88">
         <f>E6-D6-B6-A6</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D6" s="89">
-        <f>COUNTIF(F11:G84,"N/A")</f>
-        <v>0</v>
+        <f>COUNTIF(F11:G87,"N/A")</f>
+        <v>2</v>
       </c>
       <c r="E6" s="264">
-        <f>COUNTA(A11:A84)*2</f>
-        <v>18</v>
+        <f>COUNTA(A11:A87)*2</f>
+        <v>24</v>
       </c>
       <c r="F6" s="264"/>
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N6" s="211">
-        <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"MaiCTP",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O6" s="238">
@@ -30016,26 +30373,26 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"Open")</f>
         <v>0</v>
       </c>
       <c r="K7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Accepted")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"Accepted")</f>
         <v>0</v>
       </c>
       <c r="L7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Ready for test")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"Ready for test")</f>
         <v>0</v>
       </c>
       <c r="M7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Closed")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"Closed")</f>
         <v>0</v>
       </c>
       <c r="N7" s="211">
-        <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"")</f>
+        <f>COUNTIFS(J12:J203,"ChinhVC",L12:L203,"")</f>
         <v>0</v>
       </c>
       <c r="O7" s="238">
@@ -30295,11 +30652,11 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K8" s="236">
         <f t="shared" ref="K8:O8" si="1">SUM(K2:K7)</f>
@@ -30319,7 +30676,7 @@
       </c>
       <c r="O8" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P8" s="79"/>
       <c r="Q8" s="79"/>
@@ -30823,7 +31180,7 @@
       <c r="IV9" s="79"/>
       <c r="IW9" s="79"/>
     </row>
-    <row r="10" spans="1:257" ht="28.5" customHeight="1">
+    <row r="10" spans="1:257" ht="25.5">
       <c r="A10" s="49" t="s">
         <v>30</v>
       </c>
@@ -30852,22 +31209,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -31112,10 +31469,10 @@
       <c r="IV10" s="79"/>
       <c r="IW10" s="79"/>
     </row>
-    <row r="11" spans="1:257" ht="14.25" customHeight="1">
+    <row r="11" spans="1:257">
       <c r="A11" s="159"/>
       <c r="B11" s="159" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C11" s="160"/>
       <c r="D11" s="160"/>
@@ -31131,76 +31488,118 @@
       <c r="N11" s="160"/>
       <c r="O11" s="193"/>
     </row>
-    <row r="12" spans="1:257" ht="14.25" customHeight="1">
+    <row r="12" spans="1:257" ht="153">
       <c r="A12" s="98" t="str">
         <f>IF(OR(B12&lt;&gt;"",D12&lt;E11&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Statistic-2]</v>
       </c>
       <c r="B12" s="99" t="s">
+        <v>869</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>897</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>872</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I12" s="278" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J12" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K12" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L12" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M12" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N12" s="221"/>
+      <c r="O12" s="239" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:257" ht="153">
+      <c r="A13" s="98" t="str">
+        <f t="shared" ref="A13:A23" si="2">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Statistic-3]</v>
+      </c>
+      <c r="B13" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="C12" s="99" t="s">
-        <v>898</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>873</v>
-      </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="220"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="221"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="221"/>
+      <c r="C13" s="99" t="s">
+        <v>897</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>872</v>
+      </c>
+      <c r="E13" s="105"/>
+      <c r="F13" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I13" s="278" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J13" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K13" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L13" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M13" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N13" s="221"/>
+      <c r="O13" s="239" t="s">
+        <v>1247</v>
+      </c>
     </row>
-    <row r="13" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A13" s="98" t="str">
-        <f t="shared" ref="A13:A20" si="2">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Statistic-3]</v>
-      </c>
-      <c r="B13" s="99" t="s">
-        <v>871</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>898</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>873</v>
-      </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="221"/>
-    </row>
-    <row r="14" spans="1:257" ht="14.25" customHeight="1">
+    <row r="14" spans="1:257" ht="63.75">
       <c r="A14" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Statistic-4]</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C14" s="99" t="s">
+        <v>873</v>
+      </c>
+      <c r="D14" s="99" t="s">
         <v>874</v>
       </c>
-      <c r="D14" s="99" t="s">
-        <v>875</v>
-      </c>
       <c r="E14" s="105"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="106"/>
+      <c r="F14" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="106">
+        <v>42323</v>
+      </c>
       <c r="I14" s="107"/>
       <c r="J14" s="220"/>
       <c r="K14" s="220"/>
@@ -31209,102 +31608,156 @@
       <c r="N14" s="221"/>
       <c r="O14" s="221"/>
     </row>
-    <row r="15" spans="1:257" ht="14.25" customHeight="1">
+    <row r="15" spans="1:257" ht="51">
       <c r="A15" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Statistic-5]</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>876</v>
+        <v>1255</v>
       </c>
       <c r="C15" s="99" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E15" s="105"/>
+      <c r="F15" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I15" s="107"/>
+      <c r="J15" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K15" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L15" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M15" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N15" s="221"/>
+      <c r="O15" s="239" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:257" ht="51">
+      <c r="A16" s="98" t="str">
+        <f t="shared" ref="A16:A17" si="3">IF(OR(B16&lt;&gt;"",D16&lt;E15&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Statistic-6]</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E16" s="105"/>
+      <c r="F16" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I16" s="107"/>
+      <c r="J16" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K16" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L16" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M16" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N16" s="221"/>
+      <c r="O16" s="239" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="51">
+      <c r="A17" s="98" t="str">
+        <f t="shared" si="3"/>
+        <v>[Statistic-7]</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I17" s="107"/>
+      <c r="J17" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K17" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L17" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M17" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N17" s="221"/>
+      <c r="O17" s="239" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="63.75">
+      <c r="A18" s="98" t="str">
+        <f>IF(OR(B18&lt;&gt;"",D18&lt;E14&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Statistic-8]</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>875</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>879</v>
+      </c>
+      <c r="D18" s="99" t="s">
         <v>880</v>
       </c>
-      <c r="D15" s="99" t="s">
-        <v>881</v>
-      </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="221"/>
-    </row>
-    <row r="16" spans="1:257" ht="14.25" customHeight="1">
-      <c r="A16" s="98" t="str">
-        <f t="shared" si="2"/>
-        <v>[Statistic-6]</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>877</v>
-      </c>
-      <c r="C16" s="99" t="s">
-        <v>878</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>879</v>
-      </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="221"/>
-      <c r="N16" s="221"/>
-      <c r="O16" s="221"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A17" s="98" t="str">
-        <f t="shared" si="2"/>
-        <v>[Statistic-7]</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>882</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>883</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>887</v>
-      </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="221"/>
-      <c r="N17" s="221"/>
-      <c r="O17" s="221"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A18" s="98" t="str">
-        <f t="shared" si="2"/>
-        <v>[Statistic-8]</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>884</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>885</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>886</v>
-      </c>
       <c r="E18" s="105"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="106"/>
+      <c r="F18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="106">
+        <v>42323</v>
+      </c>
       <c r="I18" s="107"/>
       <c r="J18" s="220"/>
       <c r="K18" s="220"/>
@@ -31313,24 +31766,30 @@
       <c r="N18" s="221"/>
       <c r="O18" s="221"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1">
+    <row r="19" spans="1:15" ht="63.75">
       <c r="A19" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Statistic-9]</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="106"/>
+      <c r="F19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="106">
+        <v>42323</v>
+      </c>
       <c r="I19" s="107"/>
       <c r="J19" s="220"/>
       <c r="K19" s="220"/>
@@ -31339,24 +31798,30 @@
       <c r="N19" s="221"/>
       <c r="O19" s="221"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1">
+    <row r="20" spans="1:15" ht="102">
       <c r="A20" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Statistic-10]</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="106"/>
+      <c r="F20" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="106">
+        <v>42323</v>
+      </c>
       <c r="I20" s="107"/>
       <c r="J20" s="220"/>
       <c r="K20" s="220"/>
@@ -31364,6 +31829,132 @@
       <c r="M20" s="221"/>
       <c r="N20" s="221"/>
       <c r="O20" s="221"/>
+    </row>
+    <row r="21" spans="1:15" ht="89.25">
+      <c r="A21" s="98" t="str">
+        <f t="shared" si="2"/>
+        <v>[Statistic-11]</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>883</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>884</v>
+      </c>
+      <c r="D21" s="99" t="s">
+        <v>885</v>
+      </c>
+      <c r="E21" s="105"/>
+      <c r="F21" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I21" s="278" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J21" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K21" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L21" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M21" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N21" s="221"/>
+      <c r="O21" s="221"/>
+    </row>
+    <row r="22" spans="1:15" ht="76.5">
+      <c r="A22" s="98" t="str">
+        <f t="shared" si="2"/>
+        <v>[Statistic-12]</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>887</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>888</v>
+      </c>
+      <c r="D22" s="99" t="s">
+        <v>889</v>
+      </c>
+      <c r="E22" s="105"/>
+      <c r="F22" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I22" s="278" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J22" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K22" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L22" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M22" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N22" s="221"/>
+      <c r="O22" s="221"/>
+    </row>
+    <row r="23" spans="1:15" ht="76.5">
+      <c r="A23" s="98" t="str">
+        <f t="shared" si="2"/>
+        <v>[Statistic-13]</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>890</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>891</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>892</v>
+      </c>
+      <c r="E23" s="105"/>
+      <c r="F23" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I23" s="278" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J23" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K23" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L23" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M23" s="221">
+        <v>42323</v>
+      </c>
+      <c r="N23" s="221"/>
+      <c r="O23" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -31374,36 +31965,39 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G23">
       <formula1>$Q$2:$Q$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test Report'!A1" display="Back to Test Report"/>
+    <hyperlink ref="O12" r:id="rId1"/>
+    <hyperlink ref="O13" r:id="rId2"/>
+    <hyperlink ref="O15:O17" r:id="rId3" display="Evident\Statistics-3.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$A$15:$A$20</xm:f>
           </x14:formula1>
-          <xm:sqref>J12:J20</xm:sqref>
+          <xm:sqref>J12:J23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$A$11:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K12:K20</xm:sqref>
+          <xm:sqref>K12:K23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$B$4:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L12:L20</xm:sqref>
+          <xm:sqref>L12:L23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -31415,8 +32009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW37"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -31449,25 +32043,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -31717,7 +32311,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="261" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C2" s="261"/>
       <c r="D2" s="261"/>
@@ -31726,11 +32320,11 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="211">
         <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Accepted")</f>
@@ -31750,7 +32344,7 @@
       </c>
       <c r="O2" s="237">
         <f t="shared" ref="O2:O7" si="0">SUM(J2:N2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="79"/>
       <c r="Q2" s="79" t="s">
@@ -32002,7 +32596,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="261" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C3" s="261"/>
       <c r="D3" s="261"/>
@@ -32011,7 +32605,7 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
@@ -32296,7 +32890,7 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
@@ -32585,7 +33179,7 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
@@ -32859,15 +33453,15 @@
     <row r="6" spans="1:257" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="87">
         <f>COUNTIF(F11:G100,"Pass")</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B6" s="88">
         <f>COUNTIF(F11:G100,"Fail")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="88">
         <f>E6-D6-B6-A6</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D6" s="89">
         <f>COUNTIF(F11:G100,"N/A")</f>
@@ -32881,7 +33475,7 @@
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
@@ -33162,7 +33756,7 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
@@ -33441,11 +34035,11 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="236">
         <f t="shared" ref="K8:O8" si="1">SUM(K2:K7)</f>
@@ -33465,7 +34059,7 @@
       </c>
       <c r="O8" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="79"/>
       <c r="Q8" s="79"/>
@@ -33969,7 +34563,7 @@
       <c r="IV9" s="79"/>
       <c r="IW9" s="79"/>
     </row>
-    <row r="10" spans="1:257" ht="30.75" customHeight="1">
+    <row r="10" spans="1:257" ht="25.5">
       <c r="A10" s="49" t="s">
         <v>30</v>
       </c>
@@ -33998,22 +34592,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -34258,10 +34852,10 @@
       <c r="IV10" s="79"/>
       <c r="IW10" s="79"/>
     </row>
-    <row r="11" spans="1:257" ht="14.25" customHeight="1">
+    <row r="11" spans="1:257" ht="12.75">
       <c r="A11" s="159"/>
       <c r="B11" s="159" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C11" s="160"/>
       <c r="D11" s="160"/>
@@ -34277,24 +34871,30 @@
       <c r="N11" s="160"/>
       <c r="O11" s="193"/>
     </row>
-    <row r="12" spans="1:257" ht="14.25" customHeight="1">
+    <row r="12" spans="1:257" ht="191.25">
       <c r="A12" s="98" t="str">
         <f>IF(OR(B12&lt;&gt;"",D12&lt;E11&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Message-2]</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C12" s="99" t="s">
+        <v>906</v>
+      </c>
+      <c r="D12" s="99" t="s">
         <v>907</v>
       </c>
-      <c r="D12" s="99" t="s">
-        <v>908</v>
-      </c>
       <c r="E12" s="105"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="106"/>
+      <c r="F12" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="106">
+        <v>42323</v>
+      </c>
       <c r="I12" s="107"/>
       <c r="J12" s="220"/>
       <c r="K12" s="220"/>
@@ -34303,24 +34903,30 @@
       <c r="N12" s="221"/>
       <c r="O12" s="221"/>
     </row>
-    <row r="13" spans="1:257" ht="14.25" customHeight="1">
+    <row r="13" spans="1:257" ht="191.25">
       <c r="A13" s="98" t="str">
         <f t="shared" ref="A13:A14" si="2">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Message-3]</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C13" s="99" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D13" s="99" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E13" s="105"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="106"/>
+      <c r="F13" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="106">
+        <v>42323</v>
+      </c>
       <c r="I13" s="107"/>
       <c r="J13" s="220"/>
       <c r="K13" s="220"/>
@@ -34329,24 +34935,30 @@
       <c r="N13" s="221"/>
       <c r="O13" s="221"/>
     </row>
-    <row r="14" spans="1:257" ht="14.25" customHeight="1">
+    <row r="14" spans="1:257" ht="25.5">
       <c r="A14" s="98" t="str">
         <f t="shared" si="2"/>
         <v>[Message-4]</v>
       </c>
       <c r="B14" s="99" t="s">
+        <v>910</v>
+      </c>
+      <c r="C14" s="99" t="s">
         <v>911</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="D14" s="99" t="s">
         <v>912</v>
       </c>
-      <c r="D14" s="99" t="s">
-        <v>913</v>
-      </c>
       <c r="E14" s="105"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="106"/>
+      <c r="F14" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="106">
+        <v>42323</v>
+      </c>
       <c r="I14" s="107"/>
       <c r="J14" s="220"/>
       <c r="K14" s="220"/>
@@ -34355,24 +34967,30 @@
       <c r="N14" s="221"/>
       <c r="O14" s="221"/>
     </row>
-    <row r="15" spans="1:257" ht="14.25" customHeight="1">
+    <row r="15" spans="1:257" ht="63.75">
       <c r="A15" s="98" t="str">
         <f t="shared" ref="A15" si="3">IF(OR(B15&lt;&gt;"",D15&lt;E14&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Message-5]</v>
       </c>
       <c r="B15" s="99" t="s">
+        <v>913</v>
+      </c>
+      <c r="C15" s="99" t="s">
         <v>914</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="D15" s="99" t="s">
         <v>915</v>
       </c>
-      <c r="D15" s="99" t="s">
-        <v>916</v>
-      </c>
       <c r="E15" s="105"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="106"/>
+      <c r="F15" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="106">
+        <v>42323</v>
+      </c>
       <c r="I15" s="107"/>
       <c r="J15" s="220"/>
       <c r="K15" s="220"/>
@@ -34381,24 +34999,30 @@
       <c r="N15" s="221"/>
       <c r="O15" s="221"/>
     </row>
-    <row r="16" spans="1:257" ht="14.25" customHeight="1">
+    <row r="16" spans="1:257" ht="63.75">
       <c r="A16" s="98" t="str">
         <f t="shared" ref="A16" si="4">IF(OR(B16&lt;&gt;"",D16&lt;E15&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Message-6]</v>
       </c>
       <c r="B16" s="99" t="s">
+        <v>916</v>
+      </c>
+      <c r="C16" s="99" t="s">
         <v>917</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="D16" s="99" t="s">
         <v>918</v>
       </c>
-      <c r="D16" s="99" t="s">
-        <v>919</v>
-      </c>
       <c r="E16" s="105"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="106"/>
+      <c r="F16" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="106">
+        <v>42323</v>
+      </c>
       <c r="I16" s="107"/>
       <c r="J16" s="220"/>
       <c r="K16" s="220"/>
@@ -34407,24 +35031,30 @@
       <c r="N16" s="221"/>
       <c r="O16" s="221"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1">
+    <row r="17" spans="1:15" ht="63.75">
       <c r="A17" s="98" t="str">
         <f t="shared" ref="A17:A37" si="5">IF(OR(B17&lt;&gt;"",D17&lt;E16&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Message-7]</v>
       </c>
       <c r="B17" s="99" t="s">
+        <v>919</v>
+      </c>
+      <c r="C17" s="99" t="s">
         <v>920</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="D17" s="99" t="s">
         <v>921</v>
       </c>
-      <c r="D17" s="99" t="s">
-        <v>922</v>
-      </c>
       <c r="E17" s="105"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="106"/>
+      <c r="F17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="106">
+        <v>42323</v>
+      </c>
       <c r="I17" s="107"/>
       <c r="J17" s="220"/>
       <c r="K17" s="220"/>
@@ -34433,24 +35063,30 @@
       <c r="N17" s="221"/>
       <c r="O17" s="221"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1">
+    <row r="18" spans="1:15" ht="89.25">
       <c r="A18" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-8]</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D18" s="99" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E18" s="105"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="106"/>
+      <c r="F18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="106">
+        <v>42323</v>
+      </c>
       <c r="I18" s="107"/>
       <c r="J18" s="220"/>
       <c r="K18" s="220"/>
@@ -34459,24 +35095,30 @@
       <c r="N18" s="221"/>
       <c r="O18" s="221"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1">
+    <row r="19" spans="1:15" ht="89.25">
       <c r="A19" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-9]</v>
       </c>
       <c r="B19" s="99" t="s">
+        <v>923</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>922</v>
+      </c>
+      <c r="D19" s="99" t="s">
         <v>924</v>
       </c>
-      <c r="C19" s="99" t="s">
-        <v>923</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>925</v>
-      </c>
       <c r="E19" s="105"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="106"/>
+      <c r="F19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="106">
+        <v>42323</v>
+      </c>
       <c r="I19" s="107"/>
       <c r="J19" s="220"/>
       <c r="K19" s="220"/>
@@ -34485,50 +35127,74 @@
       <c r="N19" s="221"/>
       <c r="O19" s="221"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1">
+    <row r="20" spans="1:15" ht="76.5">
       <c r="A20" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-10]</v>
       </c>
       <c r="B20" s="99" t="s">
+        <v>925</v>
+      </c>
+      <c r="C20" s="99" t="s">
         <v>926</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="D20" s="99" t="s">
         <v>927</v>
       </c>
-      <c r="D20" s="99" t="s">
-        <v>928</v>
-      </c>
       <c r="E20" s="105"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="221"/>
+      <c r="F20" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I20" s="107" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J20" s="220" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K20" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L20" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M20" s="221">
+        <v>42323</v>
+      </c>
       <c r="N20" s="221"/>
-      <c r="O20" s="221"/>
+      <c r="O20" s="239" t="s">
+        <v>1268</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1">
+    <row r="21" spans="1:15" ht="76.5">
       <c r="A21" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-11]</v>
       </c>
       <c r="B21" s="99" t="s">
+        <v>928</v>
+      </c>
+      <c r="C21" s="99" t="s">
         <v>929</v>
       </c>
-      <c r="C21" s="99" t="s">
-        <v>930</v>
-      </c>
       <c r="D21" s="99" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E21" s="105"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="106"/>
+      <c r="F21" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="106">
+        <v>42323</v>
+      </c>
       <c r="I21" s="107"/>
       <c r="J21" s="220"/>
       <c r="K21" s="220"/>
@@ -34537,24 +35203,30 @@
       <c r="N21" s="221"/>
       <c r="O21" s="221"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1">
+    <row r="22" spans="1:15" ht="89.25">
       <c r="A22" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-12]</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C22" s="99" t="s">
+        <v>930</v>
+      </c>
+      <c r="D22" s="99" t="s">
         <v>931</v>
       </c>
-      <c r="D22" s="99" t="s">
-        <v>932</v>
-      </c>
       <c r="E22" s="105"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="106"/>
+      <c r="F22" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="106">
+        <v>42323</v>
+      </c>
       <c r="I22" s="107"/>
       <c r="J22" s="220"/>
       <c r="K22" s="220"/>
@@ -34563,26 +35235,32 @@
       <c r="N22" s="221"/>
       <c r="O22" s="221"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1">
+    <row r="23" spans="1:15" ht="63.75">
       <c r="A23" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-13]</v>
       </c>
       <c r="B23" s="99" t="s">
+        <v>933</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>911</v>
+      </c>
+      <c r="D23" s="99" t="s">
         <v>934</v>
       </c>
-      <c r="C23" s="99" t="s">
-        <v>912</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>936</v>
-      </c>
       <c r="E23" s="98" t="s">
-        <v>935</v>
-      </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="106"/>
+        <v>1269</v>
+      </c>
+      <c r="F23" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="106">
+        <v>42323</v>
+      </c>
       <c r="I23" s="107"/>
       <c r="J23" s="220"/>
       <c r="K23" s="220"/>
@@ -34591,24 +35269,32 @@
       <c r="N23" s="221"/>
       <c r="O23" s="221"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1">
+    <row r="24" spans="1:15" ht="51">
       <c r="A24" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-14]</v>
       </c>
       <c r="B24" s="99" t="s">
+        <v>935</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>936</v>
+      </c>
+      <c r="D24" s="99" t="s">
         <v>937</v>
       </c>
-      <c r="C24" s="99" t="s">
-        <v>938</v>
-      </c>
-      <c r="D24" s="99" t="s">
-        <v>939</v>
-      </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="106"/>
+      <c r="E24" s="98" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F24" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="106">
+        <v>42323</v>
+      </c>
       <c r="I24" s="107"/>
       <c r="J24" s="220"/>
       <c r="K24" s="220"/>
@@ -34617,24 +35303,30 @@
       <c r="N24" s="221"/>
       <c r="O24" s="221"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1">
+    <row r="25" spans="1:15" ht="38.25">
       <c r="A25" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-15]</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D25" s="99" t="s">
-        <v>941</v>
-      </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="106"/>
+        <v>939</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="106">
+        <v>42323</v>
+      </c>
       <c r="I25" s="107"/>
       <c r="J25" s="220"/>
       <c r="K25" s="220"/>
@@ -34643,24 +35335,30 @@
       <c r="N25" s="221"/>
       <c r="O25" s="221"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1">
+    <row r="26" spans="1:15" ht="38.25">
       <c r="A26" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-16]</v>
       </c>
       <c r="B26" s="99" t="s">
+        <v>940</v>
+      </c>
+      <c r="C26" s="99" t="s">
         <v>942</v>
       </c>
-      <c r="C26" s="99" t="s">
-        <v>944</v>
-      </c>
       <c r="D26" s="99" t="s">
-        <v>945</v>
-      </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="106"/>
+        <v>943</v>
+      </c>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="106">
+        <v>42323</v>
+      </c>
       <c r="I26" s="107"/>
       <c r="J26" s="220"/>
       <c r="K26" s="220"/>
@@ -34669,24 +35367,30 @@
       <c r="N26" s="221"/>
       <c r="O26" s="221"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1">
+    <row r="27" spans="1:15" ht="38.25">
       <c r="A27" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-17]</v>
       </c>
       <c r="B27" s="99" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C27" s="99" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D27" s="99" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E27" s="105"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="106"/>
+      <c r="F27" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="106">
+        <v>42323</v>
+      </c>
       <c r="I27" s="107"/>
       <c r="J27" s="220"/>
       <c r="K27" s="220"/>
@@ -34695,24 +35399,30 @@
       <c r="N27" s="221"/>
       <c r="O27" s="221"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1">
+    <row r="28" spans="1:15" ht="114.75">
       <c r="A28" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-18]</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C28" s="99" t="s">
+        <v>948</v>
+      </c>
+      <c r="D28" s="99" t="s">
         <v>950</v>
       </c>
-      <c r="D28" s="99" t="s">
-        <v>952</v>
-      </c>
       <c r="E28" s="105"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="106"/>
+      <c r="F28" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="106">
+        <v>42323</v>
+      </c>
       <c r="I28" s="107"/>
       <c r="J28" s="220"/>
       <c r="K28" s="220"/>
@@ -34721,10 +35431,10 @@
       <c r="N28" s="221"/>
       <c r="O28" s="221"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1">
+    <row r="29" spans="1:15" ht="12.75">
       <c r="A29" s="172"/>
       <c r="B29" s="172" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C29" s="172"/>
       <c r="D29" s="172"/>
@@ -34740,24 +35450,30 @@
       <c r="N29" s="172"/>
       <c r="O29" s="172"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1">
+    <row r="30" spans="1:15" ht="204">
       <c r="A30" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-20]</v>
       </c>
       <c r="B30" s="99" t="s">
+        <v>951</v>
+      </c>
+      <c r="C30" s="99" t="s">
         <v>953</v>
       </c>
-      <c r="C30" s="99" t="s">
-        <v>955</v>
-      </c>
       <c r="D30" s="99" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E30" s="105"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="106"/>
+      <c r="F30" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="106">
+        <v>42323</v>
+      </c>
       <c r="I30" s="107"/>
       <c r="J30" s="220"/>
       <c r="K30" s="220"/>
@@ -34766,24 +35482,30 @@
       <c r="N30" s="221"/>
       <c r="O30" s="221"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1">
+    <row r="31" spans="1:15" ht="204">
       <c r="A31" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-21]</v>
       </c>
       <c r="B31" s="99" t="s">
+        <v>952</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>953</v>
+      </c>
+      <c r="D31" s="99" t="s">
         <v>954</v>
       </c>
-      <c r="C31" s="99" t="s">
-        <v>955</v>
-      </c>
-      <c r="D31" s="99" t="s">
-        <v>956</v>
-      </c>
       <c r="E31" s="105"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="106"/>
+      <c r="F31" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="106">
+        <v>42323</v>
+      </c>
       <c r="I31" s="107"/>
       <c r="J31" s="220"/>
       <c r="K31" s="220"/>
@@ -34792,24 +35514,30 @@
       <c r="N31" s="221"/>
       <c r="O31" s="221"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1">
+    <row r="32" spans="1:15" ht="76.5">
       <c r="A32" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-22]</v>
       </c>
       <c r="B32" s="99" t="s">
+        <v>955</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>956</v>
+      </c>
+      <c r="D32" s="99" t="s">
         <v>957</v>
       </c>
-      <c r="C32" s="99" t="s">
-        <v>958</v>
-      </c>
-      <c r="D32" s="99" t="s">
-        <v>959</v>
-      </c>
       <c r="E32" s="105"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="106"/>
+      <c r="F32" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="106">
+        <v>42323</v>
+      </c>
       <c r="I32" s="107"/>
       <c r="J32" s="220"/>
       <c r="K32" s="220"/>
@@ -34818,50 +35546,72 @@
       <c r="N32" s="221"/>
       <c r="O32" s="221"/>
     </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1">
+    <row r="33" spans="1:15" ht="89.25">
       <c r="A33" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-23]</v>
       </c>
       <c r="B33" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C33" s="99" t="s">
         <v>962</v>
       </c>
-      <c r="C33" s="99" t="s">
-        <v>964</v>
-      </c>
       <c r="D33" s="99" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E33" s="105"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="221"/>
+      <c r="F33" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="106">
+        <v>42323</v>
+      </c>
+      <c r="I33" s="107" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J33" s="220" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K33" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L33" s="220" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M33" s="221">
+        <v>42323</v>
+      </c>
       <c r="N33" s="221"/>
       <c r="O33" s="221"/>
     </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1">
+    <row r="34" spans="1:15" ht="51">
       <c r="A34" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-24]</v>
       </c>
       <c r="B34" s="99" t="s">
+        <v>935</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>936</v>
+      </c>
+      <c r="D34" s="99" t="s">
         <v>937</v>
       </c>
-      <c r="C34" s="99" t="s">
-        <v>938</v>
-      </c>
-      <c r="D34" s="99" t="s">
-        <v>939</v>
-      </c>
       <c r="E34" s="105"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="106"/>
+      <c r="F34" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="106">
+        <v>42323</v>
+      </c>
       <c r="I34" s="107"/>
       <c r="J34" s="220"/>
       <c r="K34" s="220"/>
@@ -34870,24 +35620,30 @@
       <c r="N34" s="221"/>
       <c r="O34" s="221"/>
     </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1">
+    <row r="35" spans="1:15" ht="38.25">
       <c r="A35" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-25]</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C35" s="99" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D35" s="99" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E35" s="105"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="106"/>
+      <c r="F35" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="106">
+        <v>42323</v>
+      </c>
       <c r="I35" s="107"/>
       <c r="J35" s="220"/>
       <c r="K35" s="220"/>
@@ -34896,24 +35652,30 @@
       <c r="N35" s="221"/>
       <c r="O35" s="221"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1">
+    <row r="36" spans="1:15" ht="38.25">
       <c r="A36" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-26]</v>
       </c>
       <c r="B36" s="99" t="s">
+        <v>940</v>
+      </c>
+      <c r="C36" s="99" t="s">
         <v>942</v>
       </c>
-      <c r="C36" s="99" t="s">
-        <v>944</v>
-      </c>
       <c r="D36" s="99" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E36" s="105"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="106"/>
+      <c r="F36" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="106">
+        <v>42323</v>
+      </c>
       <c r="I36" s="107"/>
       <c r="J36" s="220"/>
       <c r="K36" s="220"/>
@@ -34922,24 +35684,30 @@
       <c r="N36" s="221"/>
       <c r="O36" s="221"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1">
+    <row r="37" spans="1:15" ht="38.25">
       <c r="A37" s="98" t="str">
         <f t="shared" si="5"/>
         <v>[Message-27]</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C37" s="99" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D37" s="99" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E37" s="105"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="106"/>
+      <c r="F37" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="106">
+        <v>42323</v>
+      </c>
       <c r="I37" s="107"/>
       <c r="J37" s="220"/>
       <c r="K37" s="220"/>
@@ -34963,48 +35731,31 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test Report'!A1" display="Back to Test Report"/>
+    <hyperlink ref="O20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$A$15:$A$20</xm:f>
           </x14:formula1>
-          <xm:sqref>J12:J28</xm:sqref>
+          <xm:sqref>J12:J28 J30:J37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$A$11:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>J30:J37</xm:sqref>
+          <xm:sqref>K12:K28 K30:K37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
+            <xm:f>Calculate!$B$4:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K12:K28</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K30:K37</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L12:L28</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]Calculate!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L30:L37</xm:sqref>
+          <xm:sqref>L12:L28 L30:L37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -35016,8 +35767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW81"/>
   <sheetViews>
-    <sheetView topLeftCell="D55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D84" sqref="A80:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -35053,25 +35804,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="Q1" s="79" t="s">
         <v>22</v>
@@ -35320,7 +36071,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="261" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C2" s="261"/>
       <c r="D2" s="261"/>
@@ -35329,7 +36080,7 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
@@ -35602,7 +36353,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="261" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C3" s="261"/>
       <c r="D3" s="261"/>
@@ -35611,7 +36362,7 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
@@ -35889,7 +36640,7 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
@@ -36177,7 +36928,7 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
@@ -36470,7 +37221,7 @@
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
@@ -36744,7 +37495,7 @@
       <c r="G7" s="90"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
@@ -37017,7 +37768,7 @@
       <c r="G8" s="90"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="229">
         <f>SUM(J2:J6)</f>
@@ -37562,22 +38313,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="V10" s="79"/>
       <c r="W10" s="79"/>
@@ -38083,13 +38834,13 @@
         <v>[Admin Module-2]</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C12" s="99" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E12" s="194"/>
       <c r="F12" s="99"/>
@@ -38109,16 +38860,16 @@
         <v>[Admin Module-3]</v>
       </c>
       <c r="B13" s="99" t="s">
+        <v>966</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>967</v>
+      </c>
+      <c r="D13" s="99" t="s">
         <v>968</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="E13" s="195" t="s">
         <v>969</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>970</v>
-      </c>
-      <c r="E13" s="195" t="s">
-        <v>971</v>
       </c>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
@@ -38137,16 +38888,16 @@
         <v>[Admin Module-4]</v>
       </c>
       <c r="B14" s="99" t="s">
+        <v>970</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>971</v>
+      </c>
+      <c r="D14" s="99" t="s">
         <v>972</v>
       </c>
-      <c r="C14" s="99" t="s">
-        <v>973</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>974</v>
-      </c>
       <c r="E14" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F14" s="99"/>
       <c r="G14" s="99"/>
@@ -38165,16 +38916,16 @@
         <v>[Admin Module-5]</v>
       </c>
       <c r="B15" s="99" t="s">
+        <v>973</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>974</v>
+      </c>
+      <c r="D15" s="99" t="s">
         <v>975</v>
       </c>
-      <c r="C15" s="99" t="s">
-        <v>976</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>977</v>
-      </c>
       <c r="E15" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="99"/>
@@ -38196,13 +38947,13 @@
         <v>104</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D16" s="99" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E16" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F16" s="99"/>
       <c r="G16" s="99"/>
@@ -38221,16 +38972,16 @@
         <v>[Admin Module-7]</v>
       </c>
       <c r="B17" s="99" t="s">
+        <v>976</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>977</v>
+      </c>
+      <c r="D17" s="99" t="s">
         <v>978</v>
       </c>
-      <c r="C17" s="99" t="s">
-        <v>979</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>980</v>
-      </c>
       <c r="E17" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="99"/>
@@ -38249,16 +39000,16 @@
         <v>[Admin Module-8]</v>
       </c>
       <c r="B18" s="99" t="s">
+        <v>979</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>980</v>
+      </c>
+      <c r="D18" s="99" t="s">
         <v>981</v>
       </c>
-      <c r="C18" s="99" t="s">
-        <v>982</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>983</v>
-      </c>
       <c r="E18" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="99"/>
@@ -38277,16 +39028,16 @@
         <v>[Admin Module-9]</v>
       </c>
       <c r="B19" s="99" t="s">
+        <v>982</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>983</v>
+      </c>
+      <c r="D19" s="99" t="s">
         <v>984</v>
       </c>
-      <c r="C19" s="99" t="s">
-        <v>985</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>986</v>
-      </c>
       <c r="E19" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F19" s="99"/>
       <c r="G19" s="99"/>
@@ -38305,16 +39056,16 @@
         <v>[Admin Module-10]</v>
       </c>
       <c r="B20" s="99" t="s">
+        <v>985</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>986</v>
+      </c>
+      <c r="D20" s="99" t="s">
         <v>987</v>
       </c>
-      <c r="C20" s="99" t="s">
-        <v>988</v>
-      </c>
-      <c r="D20" s="99" t="s">
-        <v>989</v>
-      </c>
       <c r="E20" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F20" s="99"/>
       <c r="G20" s="99"/>
@@ -38333,16 +39084,16 @@
         <v>[Admin Module-11]</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E21" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F21" s="99"/>
       <c r="G21" s="99"/>
@@ -38361,16 +39112,16 @@
         <v>[Admin Module-12]</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E22" s="195" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F22" s="99"/>
       <c r="G22" s="99"/>
@@ -38628,7 +39379,7 @@
     <row r="23" spans="1:257" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="192"/>
       <c r="B23" s="191" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C23" s="192"/>
       <c r="D23" s="192"/>
@@ -38892,13 +39643,13 @@
         <v>[Admin Module-14]</v>
       </c>
       <c r="B24" s="99" t="s">
+        <v>997</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>965</v>
+      </c>
+      <c r="D24" s="99" t="s">
         <v>999</v>
-      </c>
-      <c r="C24" s="99" t="s">
-        <v>967</v>
-      </c>
-      <c r="D24" s="99" t="s">
-        <v>1001</v>
       </c>
       <c r="E24" s="200"/>
       <c r="F24" s="99"/>
@@ -39160,13 +39911,13 @@
         <v>[Admin Module-15]</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C25" s="99" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D25" s="99" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E25" s="200"/>
       <c r="F25" s="99"/>
@@ -39428,13 +40179,13 @@
         <v>[Admin Module-16]</v>
       </c>
       <c r="B26" s="99" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="99" t="s">
         <v>1002</v>
       </c>
-      <c r="C26" s="99" t="s">
-        <v>1004</v>
-      </c>
       <c r="D26" s="199" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E26" s="200"/>
       <c r="F26" s="99"/>
@@ -39696,13 +40447,13 @@
         <v>[Admin Module-17]</v>
       </c>
       <c r="B27" s="99" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D27" s="199" t="s">
         <v>1005</v>
-      </c>
-      <c r="C27" s="99" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D27" s="199" t="s">
-        <v>1007</v>
       </c>
       <c r="E27" s="200"/>
       <c r="F27" s="99"/>
@@ -39961,7 +40712,7 @@
     <row r="28" spans="1:257" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="192"/>
       <c r="B28" s="191" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C28" s="192"/>
       <c r="D28" s="192"/>
@@ -40225,13 +40976,13 @@
         <v>[Admin Module-19]</v>
       </c>
       <c r="B29" s="99" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D29" s="199" t="s">
         <v>1009</v>
-      </c>
-      <c r="C29" s="99" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D29" s="199" t="s">
-        <v>1011</v>
       </c>
       <c r="E29" s="200"/>
       <c r="F29" s="99"/>
@@ -40490,7 +41241,7 @@
     <row r="30" spans="1:257" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="192"/>
       <c r="B30" s="191" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C30" s="192"/>
       <c r="D30" s="192"/>
@@ -40754,13 +41505,13 @@
         <v>[Admin Module-21]</v>
       </c>
       <c r="B31" s="99" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C31" s="99" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D31" s="199" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E31" s="200"/>
       <c r="F31" s="99"/>
@@ -41022,13 +41773,13 @@
         <v>[Admin Module-22]</v>
       </c>
       <c r="B32" s="99" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C32" s="99" t="s">
         <v>1015</v>
       </c>
-      <c r="C32" s="99" t="s">
-        <v>1017</v>
-      </c>
       <c r="D32" s="199" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E32" s="200"/>
       <c r="F32" s="99"/>
@@ -41290,13 +42041,13 @@
         <v>[Admin Module-23]</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C33" s="99" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D33" s="199" t="s">
         <v>1020</v>
-      </c>
-      <c r="D33" s="199" t="s">
-        <v>1022</v>
       </c>
       <c r="E33" s="200"/>
       <c r="F33" s="99"/>
@@ -41558,13 +42309,13 @@
         <v>[Admin Module-24]</v>
       </c>
       <c r="B34" s="99" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C34" s="99" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D34" s="199" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E34" s="200"/>
       <c r="F34" s="99"/>
@@ -41826,13 +42577,13 @@
         <v>[Admin Module-25]</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C35" s="99" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D35" s="199" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E35" s="200"/>
       <c r="F35" s="99"/>
@@ -42094,13 +42845,13 @@
         <v>[Admin Module-26]</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D36" s="199" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E36" s="200"/>
       <c r="F36" s="99"/>
@@ -42359,7 +43110,7 @@
     <row r="37" spans="1:257" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A37" s="192"/>
       <c r="B37" s="191" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C37" s="192"/>
       <c r="D37" s="192"/>
@@ -42623,13 +43374,13 @@
         <v>[Admin Module-28]</v>
       </c>
       <c r="B38" s="99" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D38" s="199" t="s">
         <v>1031</v>
-      </c>
-      <c r="C38" s="99" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D38" s="199" t="s">
-        <v>1033</v>
       </c>
       <c r="E38" s="200"/>
       <c r="F38" s="99"/>
@@ -42891,13 +43642,13 @@
         <v>[Admin Module-29]</v>
       </c>
       <c r="B39" s="99" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C39" s="99" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D39" s="199" t="s">
         <v>1034</v>
-      </c>
-      <c r="D39" s="199" t="s">
-        <v>1036</v>
       </c>
       <c r="E39" s="200"/>
       <c r="F39" s="99"/>
@@ -43159,13 +43910,13 @@
         <v>[Admin Module-30]</v>
       </c>
       <c r="B40" s="99" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C40" s="99" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D40" s="199" t="s">
         <v>1037</v>
-      </c>
-      <c r="C40" s="99" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D40" s="199" t="s">
-        <v>1039</v>
       </c>
       <c r="E40" s="200"/>
       <c r="F40" s="99"/>
@@ -43427,13 +44178,13 @@
         <v>[Admin Module-31]</v>
       </c>
       <c r="B41" s="99" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C41" s="99" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D41" s="199" t="s">
         <v>1040</v>
-      </c>
-      <c r="C41" s="99" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D41" s="199" t="s">
-        <v>1042</v>
       </c>
       <c r="E41" s="200"/>
       <c r="F41" s="99"/>
@@ -43695,13 +44446,13 @@
         <v>[Admin Module-32]</v>
       </c>
       <c r="B42" s="99" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C42" s="99" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D42" s="199" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E42" s="200"/>
       <c r="F42" s="99"/>
@@ -43963,13 +44714,13 @@
         <v>[Admin Module-33]</v>
       </c>
       <c r="B43" s="99" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C43" s="99" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D43" s="199" t="s">
         <v>1046</v>
-      </c>
-      <c r="C43" s="99" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D43" s="199" t="s">
-        <v>1048</v>
       </c>
       <c r="E43" s="200"/>
       <c r="F43" s="99"/>
@@ -44231,13 +44982,13 @@
         <v>[Admin Module-34]</v>
       </c>
       <c r="B44" s="99" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C44" s="99" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D44" s="199" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E44" s="200"/>
       <c r="F44" s="99"/>
@@ -44499,13 +45250,13 @@
         <v>[Admin Module-35]</v>
       </c>
       <c r="B45" s="99" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C45" s="99" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D45" s="199" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E45" s="200"/>
       <c r="F45" s="99"/>
@@ -44764,7 +45515,7 @@
     <row r="46" spans="1:257" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A46" s="192"/>
       <c r="B46" s="191" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C46" s="192"/>
       <c r="D46" s="192"/>
@@ -45028,13 +45779,13 @@
         <v>[Admin Module-37]</v>
       </c>
       <c r="B47" s="99" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C47" s="99" t="s">
         <v>1056</v>
       </c>
-      <c r="C47" s="99" t="s">
-        <v>1058</v>
-      </c>
       <c r="D47" s="199" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E47" s="200"/>
       <c r="F47" s="99"/>
@@ -45296,13 +46047,13 @@
         <v>[Admin Module-38]</v>
       </c>
       <c r="B48" s="99" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C48" s="99" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D48" s="199" t="s">
         <v>1059</v>
-      </c>
-      <c r="C48" s="99" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D48" s="199" t="s">
-        <v>1061</v>
       </c>
       <c r="E48" s="200"/>
       <c r="F48" s="99"/>
@@ -45561,7 +46312,7 @@
     <row r="49" spans="1:257" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A49" s="192"/>
       <c r="B49" s="191" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C49" s="192"/>
       <c r="D49" s="192"/>
@@ -45825,13 +46576,13 @@
         <v>[Admin Module-40]</v>
       </c>
       <c r="B50" s="99" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C50" s="99" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D50" s="199" t="s">
         <v>1063</v>
-      </c>
-      <c r="C50" s="99" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D50" s="199" t="s">
-        <v>1065</v>
       </c>
       <c r="E50" s="200"/>
       <c r="F50" s="99"/>
@@ -46093,13 +46844,13 @@
         <v>[Admin Module-41]</v>
       </c>
       <c r="B51" s="99" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C51" s="99" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D51" s="199" t="s">
         <v>1066</v>
-      </c>
-      <c r="C51" s="99" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D51" s="199" t="s">
-        <v>1068</v>
       </c>
       <c r="E51" s="200"/>
       <c r="F51" s="99"/>
@@ -46361,13 +47112,13 @@
         <v>[Admin Module-42]</v>
       </c>
       <c r="B52" s="99" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C52" s="99" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D52" s="199" t="s">
         <v>1069</v>
-      </c>
-      <c r="C52" s="99" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D52" s="199" t="s">
-        <v>1071</v>
       </c>
       <c r="E52" s="200"/>
       <c r="F52" s="99"/>
@@ -46626,7 +47377,7 @@
     <row r="53" spans="1:257" s="93" customFormat="1" ht="14.25" customHeight="1">
       <c r="A53" s="192"/>
       <c r="B53" s="191" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C53" s="192"/>
       <c r="D53" s="192"/>
@@ -46890,13 +47641,13 @@
         <v>[Admin Module-44]</v>
       </c>
       <c r="B54" s="99" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C54" s="99" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D54" s="199" t="s">
         <v>1073</v>
-      </c>
-      <c r="C54" s="99" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D54" s="199" t="s">
-        <v>1075</v>
       </c>
       <c r="E54" s="200"/>
       <c r="F54" s="99"/>
@@ -47158,13 +47909,13 @@
         <v>[Admin Module-45]</v>
       </c>
       <c r="B55" s="99" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C55" s="99" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D55" s="199" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E55" s="200"/>
       <c r="F55" s="99"/>
@@ -47426,13 +48177,13 @@
         <v>[Admin Module-46]</v>
       </c>
       <c r="B56" s="99" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C56" s="99" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D56" s="199" t="s">
         <v>1079</v>
-      </c>
-      <c r="D56" s="199" t="s">
-        <v>1081</v>
       </c>
       <c r="E56" s="200"/>
       <c r="F56" s="99"/>
@@ -47691,7 +48442,7 @@
     <row r="57" spans="1:257" ht="14.25" customHeight="1">
       <c r="A57" s="192"/>
       <c r="B57" s="191" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C57" s="192"/>
       <c r="D57" s="192"/>
@@ -47713,13 +48464,13 @@
         <v>[Admin Module-48]</v>
       </c>
       <c r="B58" s="99" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C58" s="99" t="s">
+        <v>911</v>
+      </c>
+      <c r="D58" s="99" t="s">
         <v>912</v>
-      </c>
-      <c r="D58" s="99" t="s">
-        <v>913</v>
       </c>
       <c r="E58" s="200"/>
       <c r="F58" s="99"/>
@@ -47739,13 +48490,13 @@
         <v>[Admin Module-49]</v>
       </c>
       <c r="B59" s="99" t="s">
+        <v>913</v>
+      </c>
+      <c r="C59" s="99" t="s">
         <v>914</v>
       </c>
-      <c r="C59" s="99" t="s">
+      <c r="D59" s="99" t="s">
         <v>915</v>
-      </c>
-      <c r="D59" s="99" t="s">
-        <v>916</v>
       </c>
       <c r="E59" s="200"/>
       <c r="F59" s="99"/>
@@ -47765,13 +48516,13 @@
         <v>[Admin Module-50]</v>
       </c>
       <c r="B60" s="99" t="s">
+        <v>916</v>
+      </c>
+      <c r="C60" s="99" t="s">
         <v>917</v>
       </c>
-      <c r="C60" s="99" t="s">
+      <c r="D60" s="99" t="s">
         <v>918</v>
-      </c>
-      <c r="D60" s="99" t="s">
-        <v>919</v>
       </c>
       <c r="E60" s="200"/>
       <c r="F60" s="99"/>
@@ -47791,13 +48542,13 @@
         <v>[Admin Module-51]</v>
       </c>
       <c r="B61" s="99" t="s">
+        <v>919</v>
+      </c>
+      <c r="C61" s="99" t="s">
         <v>920</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="D61" s="99" t="s">
         <v>921</v>
-      </c>
-      <c r="D61" s="99" t="s">
-        <v>922</v>
       </c>
       <c r="E61" s="200"/>
       <c r="F61" s="99"/>
@@ -47817,13 +48568,13 @@
         <v>[Admin Module-52]</v>
       </c>
       <c r="B62" s="99" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C62" s="99" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D62" s="99" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E62" s="200"/>
       <c r="F62" s="99"/>
@@ -47843,13 +48594,13 @@
         <v>[Admin Module-53]</v>
       </c>
       <c r="B63" s="99" t="s">
+        <v>923</v>
+      </c>
+      <c r="C63" s="99" t="s">
+        <v>922</v>
+      </c>
+      <c r="D63" s="99" t="s">
         <v>924</v>
-      </c>
-      <c r="C63" s="99" t="s">
-        <v>923</v>
-      </c>
-      <c r="D63" s="99" t="s">
-        <v>925</v>
       </c>
       <c r="E63" s="200"/>
       <c r="F63" s="99"/>
@@ -47869,13 +48620,13 @@
         <v>[Admin Module-54]</v>
       </c>
       <c r="B64" s="99" t="s">
+        <v>925</v>
+      </c>
+      <c r="C64" s="99" t="s">
         <v>926</v>
       </c>
-      <c r="C64" s="99" t="s">
+      <c r="D64" s="99" t="s">
         <v>927</v>
-      </c>
-      <c r="D64" s="99" t="s">
-        <v>928</v>
       </c>
       <c r="E64" s="200"/>
       <c r="F64" s="99"/>
@@ -47895,13 +48646,13 @@
         <v>[Admin Module-55]</v>
       </c>
       <c r="B65" s="99" t="s">
+        <v>928</v>
+      </c>
+      <c r="C65" s="99" t="s">
         <v>929</v>
       </c>
-      <c r="C65" s="99" t="s">
-        <v>930</v>
-      </c>
       <c r="D65" s="99" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E65" s="200"/>
       <c r="F65" s="99"/>
@@ -47921,13 +48672,13 @@
         <v>[Admin Module-56]</v>
       </c>
       <c r="B66" s="99" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C66" s="99" t="s">
+        <v>930</v>
+      </c>
+      <c r="D66" s="99" t="s">
         <v>931</v>
-      </c>
-      <c r="D66" s="99" t="s">
-        <v>932</v>
       </c>
       <c r="E66" s="200"/>
       <c r="F66" s="99"/>
@@ -47947,13 +48698,13 @@
         <v>[Admin Module-57]</v>
       </c>
       <c r="B67" s="99" t="s">
+        <v>933</v>
+      </c>
+      <c r="C67" s="99" t="s">
+        <v>911</v>
+      </c>
+      <c r="D67" s="99" t="s">
         <v>934</v>
-      </c>
-      <c r="C67" s="99" t="s">
-        <v>912</v>
-      </c>
-      <c r="D67" s="99" t="s">
-        <v>936</v>
       </c>
       <c r="E67" s="200"/>
       <c r="F67" s="99"/>
@@ -47973,13 +48724,13 @@
         <v>[Admin Module-58]</v>
       </c>
       <c r="B68" s="99" t="s">
+        <v>935</v>
+      </c>
+      <c r="C68" s="99" t="s">
+        <v>936</v>
+      </c>
+      <c r="D68" s="99" t="s">
         <v>937</v>
-      </c>
-      <c r="C68" s="99" t="s">
-        <v>938</v>
-      </c>
-      <c r="D68" s="99" t="s">
-        <v>939</v>
       </c>
       <c r="E68" s="200"/>
       <c r="F68" s="99"/>
@@ -47999,13 +48750,13 @@
         <v>[Admin Module-59]</v>
       </c>
       <c r="B69" s="99" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C69" s="99" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D69" s="99" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E69" s="200"/>
       <c r="F69" s="99"/>
@@ -48025,13 +48776,13 @@
         <v>[Admin Module-60]</v>
       </c>
       <c r="B70" s="99" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C70" s="99" t="s">
+        <v>948</v>
+      </c>
+      <c r="D70" s="99" t="s">
         <v>950</v>
-      </c>
-      <c r="D70" s="99" t="s">
-        <v>952</v>
       </c>
       <c r="E70" s="173"/>
       <c r="F70" s="99"/>
@@ -48051,13 +48802,13 @@
         <v>[Admin Module-61]</v>
       </c>
       <c r="B71" s="99" t="s">
+        <v>955</v>
+      </c>
+      <c r="C71" s="99" t="s">
+        <v>956</v>
+      </c>
+      <c r="D71" s="99" t="s">
         <v>957</v>
-      </c>
-      <c r="C71" s="99" t="s">
-        <v>958</v>
-      </c>
-      <c r="D71" s="99" t="s">
-        <v>959</v>
       </c>
       <c r="E71" s="173"/>
       <c r="F71" s="99"/>
@@ -48077,13 +48828,13 @@
         <v>[Admin Module-62]</v>
       </c>
       <c r="B72" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="C72" s="99" t="s">
         <v>962</v>
       </c>
-      <c r="C72" s="99" t="s">
-        <v>964</v>
-      </c>
       <c r="D72" s="99" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E72" s="173"/>
       <c r="F72" s="99"/>
@@ -48100,7 +48851,7 @@
     <row r="73" spans="1:15" ht="14.25" customHeight="1">
       <c r="A73" s="192"/>
       <c r="B73" s="191" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C73" s="192"/>
       <c r="D73" s="192"/>
@@ -48122,13 +48873,13 @@
         <v>[Admin Module-64]</v>
       </c>
       <c r="B74" s="99" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C74" s="99" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D74" s="199" t="s">
         <v>1085</v>
-      </c>
-      <c r="C74" s="99" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D74" s="199" t="s">
-        <v>1087</v>
       </c>
       <c r="E74" s="173"/>
       <c r="F74" s="99"/>
@@ -48148,13 +48899,13 @@
         <v>[Admin Module-65]</v>
       </c>
       <c r="B75" s="99" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C75" s="99" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D75" s="199" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E75" s="173"/>
       <c r="F75" s="99"/>
@@ -48174,13 +48925,13 @@
         <v>[Admin Module-66]</v>
       </c>
       <c r="B76" s="99" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C76" s="99" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D76" s="199" t="s">
         <v>1090</v>
-      </c>
-      <c r="C76" s="99" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D76" s="199" t="s">
-        <v>1092</v>
       </c>
       <c r="E76" s="173"/>
       <c r="F76" s="99"/>
@@ -48200,13 +48951,13 @@
         <v>[Admin Module-67]</v>
       </c>
       <c r="B77" s="99" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C77" s="99" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D77" s="199" t="s">
         <v>1093</v>
-      </c>
-      <c r="C77" s="99" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D77" s="199" t="s">
-        <v>1095</v>
       </c>
       <c r="E77" s="173"/>
       <c r="F77" s="99"/>
@@ -48226,13 +48977,13 @@
         <v>[Admin Module-68]</v>
       </c>
       <c r="B78" s="99" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C78" s="99" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D78" s="199" t="s">
         <v>1096</v>
-      </c>
-      <c r="C78" s="99" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D78" s="199" t="s">
-        <v>1098</v>
       </c>
       <c r="E78" s="173"/>
       <c r="F78" s="99"/>
@@ -48252,13 +49003,13 @@
         <v>[Admin Module-69]</v>
       </c>
       <c r="B79" s="99" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C79" s="99" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D79" s="199" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E79" s="173"/>
       <c r="F79" s="99"/>
@@ -48278,13 +49029,13 @@
         <v>[Admin Module-70]</v>
       </c>
       <c r="B80" s="99" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C80" s="99" t="s">
         <v>1101</v>
       </c>
-      <c r="C80" s="99" t="s">
-        <v>1103</v>
-      </c>
       <c r="D80" s="199" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E80" s="173"/>
       <c r="F80" s="99"/>
@@ -48304,13 +49055,13 @@
         <v>[Admin Module-71]</v>
       </c>
       <c r="B81" s="99" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C81" s="99" t="s">
         <v>1102</v>
       </c>
-      <c r="C81" s="99" t="s">
-        <v>1104</v>
-      </c>
       <c r="D81" s="199" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E81" s="173"/>
       <c r="F81" s="99"/>
@@ -48847,23 +49598,23 @@
       </c>
       <c r="D16" s="122">
         <f>'Back Project'!A6</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E16" s="122">
         <f>'Back Project'!B6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="122">
         <f>'Back Project'!C6</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G16" s="122">
         <f>'Back Project'!D6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="122">
         <f>'Back Project'!E6</f>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1">
@@ -48872,7 +49623,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D17" s="122">
         <f>'Project management'!A6</f>
@@ -48901,11 +49652,11 @@
         <v>8</v>
       </c>
       <c r="C18" s="123" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D18" s="122">
         <f>Discover!A6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18" s="122">
         <f>Discover!B6</f>
@@ -48913,7 +49664,7 @@
       </c>
       <c r="F18" s="122">
         <f>Discover!C6</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G18" s="122">
         <f>Discover!D6</f>
@@ -48930,27 +49681,27 @@
         <v>9</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D19" s="122">
         <f>Statistic!A6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19" s="122">
         <f>Statistic!B6</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F19" s="122">
         <f>Statistic!C6</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G19" s="122">
         <f>Statistic!D6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="122">
         <f>Statistic!E6</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.45" customHeight="1">
@@ -48959,19 +49710,19 @@
         <v>10</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D20" s="122">
         <f>Message!A6</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E20" s="122">
         <f>Message!B6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="122">
         <f>Message!C6</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G20" s="122">
         <f>Message!D6</f>
@@ -48988,7 +49739,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="124" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D21" s="122">
         <f>'Admin Module'!A6</f>
@@ -49049,23 +49800,23 @@
       </c>
       <c r="D25" s="120">
         <f>SUM(D9:D23)</f>
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="E25" s="120">
         <f>SUM(E9:E23)</f>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F25" s="120">
         <f>SUM(F11:F24)</f>
-        <v>632</v>
+        <v>512</v>
       </c>
       <c r="G25" s="120">
         <f>SUM(G11:G24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="121">
         <f>SUM(H11:H24)</f>
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -49087,7 +49838,7 @@
       <c r="D27" s="64"/>
       <c r="E27" s="71">
         <f>(D25+E25)*100/(H25-G25)</f>
-        <v>20.603015075376884</v>
+        <v>36.318407960199004</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>43</v>
@@ -49104,7 +49855,7 @@
       <c r="D28" s="64"/>
       <c r="E28" s="71">
         <f>D25*100/(H25-G25)</f>
-        <v>16.834170854271356</v>
+        <v>29.726368159203979</v>
       </c>
       <c r="F28" s="64" t="s">
         <v>43</v>
@@ -49154,7 +49905,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -49290,7 +50041,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="130" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D12" s="125" t="s">
         <v>287</v>
@@ -49316,7 +50067,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="130" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D14" s="123" t="s">
         <v>589</v>
@@ -49329,10 +50080,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="130" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D15" s="123" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E15" s="132"/>
       <c r="F15" s="132"/>
@@ -49342,10 +50093,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="130" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D16" s="123" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E16" s="132"/>
       <c r="F16" s="132"/>
@@ -49355,10 +50106,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="130" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D17" s="123" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E17" s="132"/>
       <c r="F17" s="132"/>
@@ -49368,10 +50119,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="130" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D18" s="123" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
@@ -49381,10 +50132,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="130" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E19" s="132"/>
       <c r="F19" s="132"/>
@@ -49457,28 +50208,28 @@
     <row r="2" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="B3" s="201" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C3" s="202" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="257" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B4" s="203" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C4" s="242">
         <f>Common!J8 + 'Display Homepage'!J8+'Account management'!J8 + 'Create Edit Project'!J8 + 'Project Detail'!J8 + 'Back Project'!J8 + 'Project management'!J8 + Discover!J8+Statistic!J8 + Message!J8 + 'Admin Module'!J8</f>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="258"/>
       <c r="B5" s="204" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C5" s="244">
         <f>Common!K8 + 'Display Homepage'!K8+'Account management'!K8 + 'Create Edit Project'!K8 + 'Project Detail'!K8 + 'Back Project'!K8 + 'Project management'!K8 + Discover!K8+Statistic!K8 + Message!K8 + 'Admin Module'!K8</f>
@@ -49488,7 +50239,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="258"/>
       <c r="B6" s="204" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C6" s="245">
         <f>Common!L8 + 'Display Homepage'!L8+'Account management'!L8 + 'Create Edit Project'!L8 + 'Project Detail'!L8 + 'Back Project'!L8 + 'Project management'!L8 + Discover!L8+Statistic!L8 + Message!L8 + 'Admin Module'!L8</f>
@@ -49498,7 +50249,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="258"/>
       <c r="B7" s="204" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C7" s="243">
         <f>Common!M8 + 'Display Homepage'!M8+'Account management'!M8 + 'Create Edit Project'!M8 + 'Project Detail'!M8 + 'Back Project'!M8 + 'Project management'!M8 + Discover!M8+Statistic!M8 + Message!M8 + 'Admin Module'!M8</f>
@@ -49508,11 +50259,11 @@
     <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="259"/>
       <c r="B8" s="205" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C8" s="206">
         <f>SUM(C4:C7)</f>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -49533,7 +50284,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="211" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B11" s="210"/>
       <c r="C11" s="210"/>
@@ -49542,7 +50293,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="211" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B12" s="210"/>
       <c r="C12" s="210"/>
@@ -49557,31 +50308,31 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="213" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B14" s="213" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C14" s="213" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D14" s="213" t="s">
         <v>1117</v>
       </c>
-      <c r="C14" s="213" t="s">
+      <c r="E14" s="213" t="s">
         <v>1118</v>
       </c>
-      <c r="D14" s="213" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E14" s="213" t="s">
-        <v>1120</v>
-      </c>
       <c r="F14" s="213" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="211" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B15" s="211">
         <f>Common!J2 + 'Display Homepage'!J2+'Account management'!J2 + 'Create Edit Project'!J2 + 'Project Detail'!J2 + 'Back Project'!J2 + 'Project management'!J2 + Discover!J2+Statistic!J2 + Message!J2 + 'Admin Module'!J2</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="211">
         <f>Common!K2 + 'Display Homepage'!K2+'Account management'!K2 + 'Create Edit Project'!K2 + 'Project Detail'!K2 + 'Back Project'!K2 + 'Project management'!K2 + Discover!K2+Statistic!K2 + Message!K2 + 'Admin Module'!K2</f>
@@ -49597,16 +50348,16 @@
       </c>
       <c r="F15" s="212">
         <f t="shared" ref="F15:F20" si="0">SUM(B15:E15)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="211" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B16" s="211">
         <f>Common!J3 + 'Display Homepage'!J3+'Account management'!J3 + 'Create Edit Project'!J3 + 'Project Detail'!J3 + 'Back Project'!J3 + 'Project management'!J3 + Discover!J3+Statistic!J3 + Message!J3 + 'Admin Module'!J3</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="211">
         <f>Common!K3 + 'Display Homepage'!K3+'Account management'!K3 + 'Create Edit Project'!K3 + 'Project Detail'!K3 + 'Back Project'!K3 + 'Project management'!K3 + Discover!K3+Statistic!K3 + Message!K3 + 'Admin Module'!K3</f>
@@ -49622,12 +50373,12 @@
       </c>
       <c r="F16" s="212">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="211" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B17" s="211">
         <f>Common!J4 + 'Display Homepage'!J4+'Account management'!J4 + 'Create Edit Project'!J4 + 'Project Detail'!J4 + 'Back Project'!J4 + 'Project management'!J4 + Discover!J4+Statistic!J4 + Message!J4 + 'Admin Module'!J4</f>
@@ -49652,11 +50403,11 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="211" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B18" s="211">
         <f>Common!J5 + 'Display Homepage'!J5+'Account management'!J5 + 'Create Edit Project'!J5 + 'Project Detail'!J5 + 'Back Project'!J5 + 'Project management'!J5 + Discover!J5+Statistic!J5 + Message!J5 + 'Admin Module'!J5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C18" s="211">
         <f>Common!K5 + 'Display Homepage'!K5+'Account management'!K5 + 'Create Edit Project'!K5 + 'Project Detail'!K5 + 'Back Project'!K5 + 'Project management'!K5 + Discover!K5+Statistic!K5 + Message!K5 + 'Admin Module'!K5</f>
@@ -49672,12 +50423,12 @@
       </c>
       <c r="F18" s="212">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="211" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B19" s="211">
         <f>Common!J6 + 'Display Homepage'!J6+'Account management'!J6 + 'Create Edit Project'!J6 + 'Project Detail'!J6 + 'Back Project'!J6 + 'Project management'!J6 + Discover!J6+Statistic!J6 + Message!J6 + 'Admin Module'!J6</f>
@@ -49702,7 +50453,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="211" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B20" s="211">
         <f>Common!J7 + 'Display Homepage'!J7+'Account management'!J7 + 'Create Edit Project'!J7 + 'Project Detail'!J7 + 'Back Project'!J7 + 'Project management'!J7 + Discover!J7+Statistic!J7 + Message!J7 + 'Admin Module'!J7</f>
@@ -49727,11 +50478,11 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="212" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B21" s="212">
         <f>SUM(B15:B20)</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C21" s="212">
         <f>SUM(C15:C20)</f>
@@ -49747,7 +50498,7 @@
       </c>
       <c r="F21" s="212">
         <f>SUM(F15:F20)</f>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -49807,7 +50558,7 @@
         <v>212</v>
       </c>
       <c r="B5" s="154" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C5" s="154"/>
     </row>
@@ -49852,7 +50603,7 @@
         <v>217</v>
       </c>
       <c r="B10" s="154" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C10" s="154"/>
     </row>
@@ -49897,7 +50648,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="154" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C15" s="154"/>
     </row>
@@ -49906,7 +50657,7 @@
         <v>205</v>
       </c>
       <c r="B16" s="154" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C16" s="154"/>
     </row>
@@ -50041,7 +50792,7 @@
         <v>493</v>
       </c>
       <c r="B31" s="154" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C31" s="154"/>
     </row>
@@ -50050,7 +50801,7 @@
         <v>494</v>
       </c>
       <c r="B32" s="154" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C32" s="154"/>
     </row>
@@ -50059,7 +50810,7 @@
         <v>495</v>
       </c>
       <c r="B33" s="154" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C33" s="154"/>
     </row>
@@ -50083,7 +50834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -50119,29 +50870,29 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="235" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="R1" s="79"/>
       <c r="S1" s="79"/>
@@ -50398,7 +51149,7 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
@@ -50683,7 +51434,7 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
@@ -50968,7 +51719,7 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
@@ -51257,7 +52008,7 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
@@ -51553,7 +52304,7 @@
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
@@ -51834,7 +52585,7 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
@@ -52113,7 +52864,7 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="229">
         <f>SUM(J2:J7)</f>
@@ -52670,22 +53421,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -53214,23 +53965,23 @@
         <v>42317</v>
       </c>
       <c r="I12" s="107" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="J12" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K12" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L12" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M12" s="106">
         <v>42317</v>
       </c>
       <c r="N12" s="221"/>
       <c r="O12" s="239" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="13" spans="1:257" ht="63.75">
@@ -53239,13 +53990,13 @@
         <v>[Common Module-3]</v>
       </c>
       <c r="B13" s="112" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C13" s="112" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D13" s="170" t="s">
         <v>1140</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D13" s="170" t="s">
-        <v>1142</v>
       </c>
       <c r="E13" s="105"/>
       <c r="F13" s="99" t="s">
@@ -53255,23 +54006,23 @@
         <v>42317</v>
       </c>
       <c r="I13" s="107" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="J13" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K13" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L13" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M13" s="106">
         <v>42317</v>
       </c>
       <c r="N13" s="221"/>
       <c r="O13" s="239" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:257" ht="54">
@@ -53286,7 +54037,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="170" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E14" s="105"/>
       <c r="F14" s="99" t="s">
@@ -53297,23 +54048,23 @@
         <v>42317</v>
       </c>
       <c r="I14" s="107" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="J14" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K14" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L14" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M14" s="106">
         <v>42317</v>
       </c>
       <c r="N14" s="221"/>
       <c r="O14" s="239" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="15" spans="1:257" ht="54">
@@ -53339,23 +54090,23 @@
         <v>42317</v>
       </c>
       <c r="I15" s="107" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J15" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K15" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L15" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M15" s="106">
         <v>42317</v>
       </c>
       <c r="N15" s="221"/>
       <c r="O15" s="239" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="16" spans="1:257" s="135" customFormat="1" ht="54">
@@ -53381,29 +54132,29 @@
         <v>42317</v>
       </c>
       <c r="I16" s="107" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J16" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K16" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L16" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M16" s="106">
         <v>42317</v>
       </c>
       <c r="N16" s="221"/>
       <c r="O16" s="239" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="17" spans="1:257" s="145" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="159"/>
       <c r="B17" s="159" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C17" s="160"/>
       <c r="D17" s="160"/>
@@ -53697,13 +54448,13 @@
         <v>[Common Module-9]</v>
       </c>
       <c r="B19" s="99" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C19" s="99" t="s">
         <v>1132</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="D19" s="180" t="s">
         <v>1134</v>
-      </c>
-      <c r="D19" s="180" t="s">
-        <v>1136</v>
       </c>
       <c r="E19" s="162"/>
       <c r="F19" s="99" t="s">
@@ -53727,13 +54478,13 @@
         <v>[Common Module-10]</v>
       </c>
       <c r="B20" s="99" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C20" s="99" t="s">
         <v>1133</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="D20" s="180" t="s">
         <v>1135</v>
-      </c>
-      <c r="D20" s="180" t="s">
-        <v>1137</v>
       </c>
       <c r="E20" s="162"/>
       <c r="F20" s="99" t="s">
@@ -53851,7 +54602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -53885,25 +54636,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -54162,7 +54913,7 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J201,"ManhNL",L12:L201,"Open")</f>
@@ -54447,7 +55198,7 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J201,"HuyNM",L12:L201,"Open")</f>
@@ -54732,7 +55483,7 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J201,"AnhDD",L12:L201,"Open")</f>
@@ -55021,7 +55772,7 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J201,"TrungVN",L12:L201,"Open")</f>
@@ -55317,7 +56068,7 @@
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J201,"MaiCTP",L12:L201,"Open")</f>
@@ -55598,7 +56349,7 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J201,"ChinhVC",L12:L201,"Open")</f>
@@ -55877,7 +56628,7 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
@@ -56434,22 +57185,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -56978,16 +57729,16 @@
         <v>42317</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="J12" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K12" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L12" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M12" s="221">
         <v>42317</v>
@@ -57157,7 +57908,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E18" s="110"/>
       <c r="F18" s="112" t="s">
@@ -57336,7 +58087,7 @@
         <v>82</v>
       </c>
       <c r="C24" s="108" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D24" s="108" t="s">
         <v>83</v>
@@ -57350,16 +58101,16 @@
         <v>42317</v>
       </c>
       <c r="I24" s="241" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="J24" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K24" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L24" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M24" s="221">
         <v>42317</v>
@@ -57376,7 +58127,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="108" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D25" s="108" t="s">
         <v>83</v>
@@ -57511,25 +58262,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -57788,7 +58539,7 @@
       <c r="G2" s="261"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J200,"ManhNL",L12:L200,"Open")</f>
@@ -58073,7 +58824,7 @@
       <c r="G3" s="261"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J200,"HuyNM",L12:L200,"Open")</f>
@@ -58358,7 +59109,7 @@
       <c r="G4" s="262"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J200,"AnhDD",L12:L200,"Open")</f>
@@ -58647,7 +59398,7 @@
       <c r="G5" s="263"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J200,"TrungVN",L12:L200,"Open")</f>
@@ -58943,7 +59694,7 @@
       <c r="G6" s="264"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J200,"MaiCTP",L12:L200,"Open")</f>
@@ -59224,7 +59975,7 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J200,"ChinhVC",L12:L200,"Open")</f>
@@ -59503,7 +60254,7 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
@@ -60060,22 +60811,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -61405,7 +62156,7 @@
         <v>[Account Management Module-5]</v>
       </c>
       <c r="B15" s="112" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C15" s="112" t="s">
         <v>134</v>
@@ -61440,7 +62191,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="112" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D16" s="112" t="s">
         <v>135</v>
@@ -61475,7 +62226,7 @@
         <v>239</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E17" s="112" t="s">
         <v>99</v>
@@ -61507,7 +62258,7 @@
         <v>240</v>
       </c>
       <c r="D18" s="112" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E18" s="112" t="s">
         <v>99</v>
@@ -61667,7 +62418,7 @@
         <v>139</v>
       </c>
       <c r="D23" s="112" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E23" s="112" t="s">
         <v>99</v>
@@ -62381,7 +63132,7 @@
         <v>253</v>
       </c>
       <c r="D31" s="112" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E31" s="112" t="s">
         <v>99</v>
@@ -62410,7 +63161,7 @@
         <v>265</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D32" s="112" t="s">
         <v>248</v>
@@ -62442,10 +63193,10 @@
         <v>249</v>
       </c>
       <c r="C33" s="112" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D33" s="112" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E33" s="112" t="s">
         <v>115</v>
@@ -62491,20 +63242,20 @@
       </c>
       <c r="I34" s="92"/>
       <c r="J34" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K34" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L34" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M34" s="221">
         <v>42319</v>
       </c>
       <c r="N34" s="221"/>
       <c r="O34" s="239" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="14.25" customHeight="1">
@@ -62516,10 +63267,10 @@
         <v>254</v>
       </c>
       <c r="C35" s="112" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D35" s="112" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E35" s="112"/>
       <c r="F35" s="112" t="s">
@@ -62546,10 +63297,10 @@
         <v>255</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D36" s="112" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E36" s="54" t="s">
         <v>97</v>
@@ -62595,20 +63346,20 @@
       </c>
       <c r="I37" s="92"/>
       <c r="J37" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K37" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L37" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M37" s="221">
         <v>42319</v>
       </c>
       <c r="N37" s="221"/>
       <c r="O37" s="239" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="14.25" customHeight="1">
@@ -62617,13 +63368,13 @@
         <v>[Account Management Module-28]</v>
       </c>
       <c r="B38" s="112" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C38" s="112" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D38" s="112" t="s">
         <v>1163</v>
-      </c>
-      <c r="C38" s="112" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D38" s="112" t="s">
-        <v>1165</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="112" t="s">
@@ -62635,20 +63386,20 @@
       </c>
       <c r="I38" s="92"/>
       <c r="J38" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K38" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L38" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M38" s="221">
         <v>42319</v>
       </c>
       <c r="N38" s="221"/>
       <c r="O38" s="239" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="14.25" customHeight="1">
@@ -62660,7 +63411,7 @@
         <v>263</v>
       </c>
       <c r="C39" s="112" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D39" s="112" t="s">
         <v>262</v>
@@ -62709,20 +63460,20 @@
       </c>
       <c r="I40" s="92"/>
       <c r="J40" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K40" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L40" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M40" s="221">
         <v>42319</v>
       </c>
       <c r="N40" s="221"/>
       <c r="O40" s="239" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="14.25" customHeight="1">
@@ -62734,10 +63485,10 @@
         <v>266</v>
       </c>
       <c r="C41" s="112" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D41" s="148" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E41" s="112" t="s">
         <v>115</v>
@@ -62781,20 +63532,20 @@
       </c>
       <c r="I42" s="92"/>
       <c r="J42" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K42" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L42" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M42" s="221">
         <v>42319</v>
       </c>
       <c r="N42" s="221"/>
       <c r="O42" s="239" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="14.25" customHeight="1">
@@ -62809,7 +63560,7 @@
         <v>146</v>
       </c>
       <c r="D43" s="148" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E43" s="112" t="s">
         <v>115</v>
@@ -62835,10 +63586,10 @@
         <v>[Account Management Module-34]</v>
       </c>
       <c r="B44" s="112" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C44" s="112" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D44" s="148" t="s">
         <v>268</v>
@@ -62870,7 +63621,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="112" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D45" s="148" t="s">
         <v>147</v>
@@ -62956,7 +63707,7 @@
         <v>151</v>
       </c>
       <c r="D48" s="112" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E48" s="112" t="s">
         <v>119</v>
@@ -63020,7 +63771,7 @@
         <v>154</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E50" s="112" t="s">
         <v>119</v>
@@ -63052,7 +63803,7 @@
         <v>155</v>
       </c>
       <c r="D51" s="112" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E51" s="112" t="s">
         <v>119</v>
@@ -63084,7 +63835,7 @@
         <v>158</v>
       </c>
       <c r="D52" s="112" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E52" s="112" t="s">
         <v>119</v>
@@ -63358,7 +64109,7 @@
         <v>161</v>
       </c>
       <c r="D53" s="112" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E53" s="112" t="s">
         <v>115</v>
@@ -63372,13 +64123,13 @@
       </c>
       <c r="I53" s="149"/>
       <c r="J53" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K53" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L53" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M53" s="221">
         <v>42319</v>
@@ -63412,13 +64163,13 @@
       </c>
       <c r="I54" s="92"/>
       <c r="J54" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K54" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L54" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M54" s="221">
         <v>42319</v>
@@ -63502,7 +64253,7 @@
         <v>174</v>
       </c>
       <c r="D57" s="150" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E57" s="112" t="s">
         <v>119</v>
@@ -63534,7 +64285,7 @@
         <v>175</v>
       </c>
       <c r="D58" s="150" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E58" s="112" t="s">
         <v>119</v>
@@ -63617,7 +64368,7 @@
         <v>148</v>
       </c>
       <c r="D61" s="112" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E61" s="112" t="s">
         <v>119</v>
@@ -63649,7 +64400,7 @@
         <v>148</v>
       </c>
       <c r="D62" s="112" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E62" s="112" t="s">
         <v>119</v>
@@ -63664,7 +64415,7 @@
       <c r="I62" s="92"/>
       <c r="J62" s="220"/>
       <c r="K62" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L62" s="220"/>
       <c r="M62" s="221"/>
@@ -63683,7 +64434,7 @@
         <v>170</v>
       </c>
       <c r="D63" s="112" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E63" s="112" t="s">
         <v>119</v>
@@ -63709,10 +64460,10 @@
         <v>[Account Management Module-54]</v>
       </c>
       <c r="B64" s="112" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C64" s="112" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D64" s="112" t="s">
         <v>273</v>
@@ -63745,7 +64496,7 @@
         <v>275</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E65" s="112" t="s">
         <v>119</v>
@@ -63887,20 +64638,20 @@
       </c>
       <c r="I69" s="112"/>
       <c r="J69" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K69" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L69" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M69" s="221">
         <v>42319</v>
       </c>
       <c r="N69" s="221"/>
       <c r="O69" s="239" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="14.25" customHeight="1">
@@ -64091,7 +64842,7 @@
         <v>283</v>
       </c>
       <c r="C76" s="112" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D76" s="150" t="s">
         <v>282</v>
@@ -64123,10 +64874,10 @@
         <v>279</v>
       </c>
       <c r="C77" s="112" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D77" s="150" t="s">
         <v>1193</v>
-      </c>
-      <c r="D77" s="150" t="s">
-        <v>1195</v>
       </c>
       <c r="E77" s="112" t="s">
         <v>129</v>
@@ -64140,20 +64891,20 @@
       </c>
       <c r="I77" s="92"/>
       <c r="J77" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K77" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L77" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M77" s="221">
         <v>42319</v>
       </c>
       <c r="N77" s="221"/>
       <c r="O77" s="239" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="14.25" customHeight="1">
@@ -64168,7 +64919,7 @@
         <v>190</v>
       </c>
       <c r="D78" s="112" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E78" s="112" t="s">
         <v>129</v>
@@ -64200,7 +64951,7 @@
         <v>189</v>
       </c>
       <c r="D79" s="112" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E79" s="112" t="s">
         <v>129</v>
@@ -64214,13 +64965,13 @@
       </c>
       <c r="I79" s="92"/>
       <c r="J79" s="220" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K79" s="220" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L79" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M79" s="221">
         <v>42319</v>
@@ -64325,25 +65076,25 @@
       <c r="G1" s="77"/>
       <c r="H1" s="78"/>
       <c r="I1" s="224" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="J1" s="225" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L1" s="225" t="s">
         <v>1117</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="M1" s="225" t="s">
         <v>1118</v>
       </c>
-      <c r="L1" s="225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M1" s="225" t="s">
-        <v>1120</v>
-      </c>
       <c r="N1" s="225" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O1" s="226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="P1" s="79"/>
       <c r="Q1" s="79"/>
@@ -64602,7 +65353,7 @@
       <c r="G2" s="267"/>
       <c r="H2" s="80"/>
       <c r="I2" s="227" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="J2" s="211">
         <f>COUNTIFS(J12:J207,"ManhNL",L12:L207,"Open")</f>
@@ -64887,7 +65638,7 @@
       <c r="G3" s="270"/>
       <c r="H3" s="80"/>
       <c r="I3" s="227" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="211">
         <f>COUNTIFS(J12:J207,"HuyNM",L12:L207,"Open")</f>
@@ -65172,7 +65923,7 @@
       <c r="G4" s="270"/>
       <c r="H4" s="80"/>
       <c r="I4" s="227" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J4" s="211">
         <f>COUNTIFS(J12:J207,"AnhDD",L12:L207,"Open")</f>
@@ -65461,7 +66212,7 @@
       <c r="G5" s="273"/>
       <c r="H5" s="85"/>
       <c r="I5" s="227" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J5" s="211">
         <f>COUNTIFS(J12:J207,"TrungVN",L12:L207,"Open")</f>
@@ -65757,7 +66508,7 @@
       <c r="G6" s="276"/>
       <c r="H6" s="85"/>
       <c r="I6" s="227" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="211">
         <f>COUNTIFS(J12:J207,"MaiCTP",L12:L207,"Open")</f>
@@ -66038,7 +66789,7 @@
       <c r="G7" s="232"/>
       <c r="H7" s="85"/>
       <c r="I7" s="227" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J7" s="211">
         <f>COUNTIFS(J12:J207,"ChinhVC",L12:L207,"Open")</f>
@@ -66317,7 +67068,7 @@
       <c r="G8" s="232"/>
       <c r="H8" s="85"/>
       <c r="I8" s="228" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="236">
         <f>SUM(J2:J7)</f>
@@ -66874,22 +67625,22 @@
         <v>36</v>
       </c>
       <c r="J10" s="217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K10" s="218" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="219" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M10" s="219" t="s">
         <v>1111</v>
       </c>
-      <c r="M10" s="219" t="s">
-        <v>1113</v>
-      </c>
       <c r="N10" s="217" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O10" s="219" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="P10" s="79"/>
       <c r="Q10" s="79"/>
@@ -67538,16 +68289,16 @@
         <v>42317</v>
       </c>
       <c r="I16" s="107" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="J16" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K16" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L16" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M16" s="221">
         <v>42317</v>
@@ -67561,7 +68312,7 @@
         <v>[Create Edit Project-7]</v>
       </c>
       <c r="B17" s="112" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C17" s="170" t="s">
         <v>305</v>
@@ -67578,16 +68329,16 @@
         <v>42317</v>
       </c>
       <c r="I17" s="107" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="J17" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K17" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L17" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M17" s="221">
         <v>42317</v>
@@ -67619,13 +68370,13 @@
       </c>
       <c r="I18" s="107"/>
       <c r="J18" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K18" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L18" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M18" s="221">
         <v>42317</v>
@@ -67645,7 +68396,7 @@
         <v>309</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E19" s="105"/>
       <c r="F19" s="97" t="s">
@@ -67657,13 +68408,13 @@
       </c>
       <c r="I19" s="107"/>
       <c r="J19" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K19" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L19" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M19" s="221">
         <v>42317</v>
@@ -67695,13 +68446,13 @@
       </c>
       <c r="I20" s="107"/>
       <c r="J20" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K20" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L20" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M20" s="221">
         <v>42317</v>
@@ -67762,16 +68513,16 @@
         <v>42317</v>
       </c>
       <c r="I22" s="107" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="J22" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K22" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L22" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M22" s="221">
         <v>42317</v>
@@ -67840,7 +68591,7 @@
         <v>331</v>
       </c>
       <c r="D25" s="99" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E25" s="105"/>
       <c r="F25" s="97" t="s">
@@ -67870,7 +68621,7 @@
         <v>317</v>
       </c>
       <c r="D26" s="99" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E26" s="173"/>
       <c r="F26" s="97" t="s">
@@ -67900,7 +68651,7 @@
         <v>328</v>
       </c>
       <c r="D27" s="99" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E27" s="173"/>
       <c r="F27" s="97" t="s">
@@ -67930,7 +68681,7 @@
         <v>329</v>
       </c>
       <c r="D28" s="99" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E28" s="173"/>
       <c r="F28" s="97" t="s">
@@ -68195,10 +68946,10 @@
         <v>346</v>
       </c>
       <c r="C37" s="164" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D37" s="99" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E37" s="173"/>
       <c r="F37" s="97" t="s">
@@ -68209,16 +68960,16 @@
         <v>42318</v>
       </c>
       <c r="I37" s="99" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="J37" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K37" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L37" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M37" s="221">
         <v>42317</v>
@@ -68268,7 +69019,7 @@
         <v>413</v>
       </c>
       <c r="D39" s="99" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E39" s="173"/>
       <c r="F39" s="97" t="s">
@@ -68352,13 +69103,13 @@
         <v>[Create Edit Project-32]</v>
       </c>
       <c r="B42" s="99" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C42" s="164" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D42" s="99" t="s">
         <v>1214</v>
-      </c>
-      <c r="C42" s="164" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D42" s="99" t="s">
-        <v>1216</v>
       </c>
       <c r="E42" s="173"/>
       <c r="F42" s="97" t="s">
@@ -68388,7 +69139,7 @@
         <v>361</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E43" s="173"/>
       <c r="F43" s="97" t="s">
@@ -68418,7 +69169,7 @@
         <v>365</v>
       </c>
       <c r="D44" s="99" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E44" s="173"/>
       <c r="F44" s="97" t="s">
@@ -68472,13 +69223,13 @@
         <v>[Create Edit Project-36]</v>
       </c>
       <c r="B46" s="112" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C46" s="164" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D46" s="99" t="s">
         <v>1219</v>
-      </c>
-      <c r="C46" s="164" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D46" s="99" t="s">
-        <v>1221</v>
       </c>
       <c r="E46" s="173"/>
       <c r="F46" s="97" t="s">
@@ -68865,10 +69616,10 @@
         <v>399</v>
       </c>
       <c r="C59" s="169" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D59" s="166" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E59" s="177"/>
       <c r="F59" s="97" t="s">
@@ -68958,7 +69709,7 @@
         <v>413</v>
       </c>
       <c r="D62" s="99" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E62" s="173"/>
       <c r="F62" s="97" t="s">
@@ -68982,13 +69733,13 @@
         <v>[Create Edit Project-53]</v>
       </c>
       <c r="B63" s="99" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C63" s="99" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D63" s="99" t="s">
         <v>1225</v>
-      </c>
-      <c r="C63" s="99" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D63" s="99" t="s">
-        <v>1227</v>
       </c>
       <c r="E63" s="173"/>
       <c r="F63" s="97" t="s">
@@ -69000,13 +69751,13 @@
       </c>
       <c r="I63" s="173"/>
       <c r="J63" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K63" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L63" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M63" s="221">
         <v>42318</v>
@@ -69020,13 +69771,13 @@
         <v>[Create Edit Project-54]</v>
       </c>
       <c r="B64" s="99" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C64" s="99" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D64" s="99" t="s">
         <v>1228</v>
-      </c>
-      <c r="C64" s="99" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D64" s="99" t="s">
-        <v>1230</v>
       </c>
       <c r="E64" s="173"/>
       <c r="F64" s="97" t="s">
@@ -69038,13 +69789,13 @@
       </c>
       <c r="I64" s="173"/>
       <c r="J64" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K64" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L64" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M64" s="221">
         <v>42318</v>
@@ -69148,13 +69899,13 @@
         <v>[Create Edit Project-58]</v>
       </c>
       <c r="B68" s="99" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C68" s="99" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D68" s="99" t="s">
         <v>1231</v>
-      </c>
-      <c r="C68" s="99" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D68" s="99" t="s">
-        <v>1233</v>
       </c>
       <c r="E68" s="173"/>
       <c r="F68" s="97" t="s">
@@ -69166,13 +69917,13 @@
       </c>
       <c r="I68" s="173"/>
       <c r="J68" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K68" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L68" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M68" s="221">
         <v>42318</v>
@@ -69186,13 +69937,13 @@
         <v>[Create Edit Project-59]</v>
       </c>
       <c r="B69" s="99" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C69" s="99" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D69" s="99" t="s">
         <v>1234</v>
-      </c>
-      <c r="C69" s="99" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D69" s="99" t="s">
-        <v>1236</v>
       </c>
       <c r="E69" s="173"/>
       <c r="F69" s="97" t="s">
@@ -69204,13 +69955,13 @@
       </c>
       <c r="I69" s="173"/>
       <c r="J69" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K69" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L69" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M69" s="221">
         <v>42318</v>
@@ -69224,13 +69975,13 @@
         <v>[Create Edit Project-60]</v>
       </c>
       <c r="B70" s="99" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C70" s="99" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D70" s="99" t="s">
         <v>1237</v>
-      </c>
-      <c r="C70" s="99" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D70" s="99" t="s">
-        <v>1239</v>
       </c>
       <c r="E70" s="173"/>
       <c r="F70" s="97" t="s">
@@ -69242,13 +69993,13 @@
       </c>
       <c r="I70" s="173"/>
       <c r="J70" s="220" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K70" s="220" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L70" s="220" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M70" s="221">
         <v>42318</v>
@@ -69262,13 +70013,13 @@
         <v>[Create Edit Project-61]</v>
       </c>
       <c r="B71" s="99" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C71" s="99" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D71" s="99" t="s">
         <v>1240</v>
-      </c>
-      <c r="C71" s="99" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D71" s="99" t="s">
-        <v>1242</v>
       </c>
       <c r="E71" s="173"/>
       <c r="F71" s="97" t="s">
@@ -69445,10 +70196,10 @@
         <v>440</v>
       </c>
       <c r="C77" s="164" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D77" s="99" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E77" s="173"/>
       <c r="F77" s="97" t="s">
@@ -69505,10 +70256,10 @@
         <v>442</v>
       </c>
       <c r="C79" s="163" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D79" s="166" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E79" s="173"/>
       <c r="F79" s="97" t="s">
@@ -69535,10 +70286,10 @@
         <v>444</v>
       </c>
       <c r="C80" s="163" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D80" s="166" t="s">
         <v>1245</v>
-      </c>
-      <c r="D80" s="166" t="s">
-        <v>1247</v>
       </c>
       <c r="E80" s="173"/>
       <c r="F80" s="97" t="s">
